--- a/SMOLrunic+.xlsx
+++ b/SMOLrunic+.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9486">
   <si>
     <t>NUM</t>
   </si>
@@ -38123,6 +38123,1629 @@
   </si>
   <si>
     <t>with the same right (adj., postposed</t>
+  </si>
+  <si>
+    <t>2711</t>
+  </si>
+  <si>
+    <t>a0:01</t>
+  </si>
+  <si>
+    <t>MusicTypewriter (EN)</t>
+  </si>
+  <si>
+    <t>2712</t>
+  </si>
+  <si>
+    <t>♯a0:02</t>
+  </si>
+  <si>
+    <t>2713</t>
+  </si>
+  <si>
+    <t>♭b0:02</t>
+  </si>
+  <si>
+    <t>2714</t>
+  </si>
+  <si>
+    <t>b0:03</t>
+  </si>
+  <si>
+    <t>2715</t>
+  </si>
+  <si>
+    <t>c1:04</t>
+  </si>
+  <si>
+    <t>2716</t>
+  </si>
+  <si>
+    <t>♯c1:05</t>
+  </si>
+  <si>
+    <t>2717</t>
+  </si>
+  <si>
+    <t>♭d1:05</t>
+  </si>
+  <si>
+    <t>2718</t>
+  </si>
+  <si>
+    <t>d1:06</t>
+  </si>
+  <si>
+    <t>2719</t>
+  </si>
+  <si>
+    <t>♯d:07</t>
+  </si>
+  <si>
+    <t>2720</t>
+  </si>
+  <si>
+    <t>♭e1:07</t>
+  </si>
+  <si>
+    <t>2721</t>
+  </si>
+  <si>
+    <t>e1:08</t>
+  </si>
+  <si>
+    <t>2722</t>
+  </si>
+  <si>
+    <t>f1:09</t>
+  </si>
+  <si>
+    <t>2723</t>
+  </si>
+  <si>
+    <t>♯f1:10</t>
+  </si>
+  <si>
+    <t>2724</t>
+  </si>
+  <si>
+    <t>♭g1:10</t>
+  </si>
+  <si>
+    <t>2725</t>
+  </si>
+  <si>
+    <t>g1:11</t>
+  </si>
+  <si>
+    <t>2726</t>
+  </si>
+  <si>
+    <t>♯g1:12</t>
+  </si>
+  <si>
+    <t>2727</t>
+  </si>
+  <si>
+    <t>♭a1:12</t>
+  </si>
+  <si>
+    <t>2728</t>
+  </si>
+  <si>
+    <t>a1:13</t>
+  </si>
+  <si>
+    <t>2729</t>
+  </si>
+  <si>
+    <t>♯a1:14</t>
+  </si>
+  <si>
+    <t>2730</t>
+  </si>
+  <si>
+    <t>♭b1:14</t>
+  </si>
+  <si>
+    <t>2731</t>
+  </si>
+  <si>
+    <t>b1:15</t>
+  </si>
+  <si>
+    <t>2732</t>
+  </si>
+  <si>
+    <t>c2:16</t>
+  </si>
+  <si>
+    <t>2733</t>
+  </si>
+  <si>
+    <t>♯c2:17</t>
+  </si>
+  <si>
+    <t>2734</t>
+  </si>
+  <si>
+    <t>♭d2:17</t>
+  </si>
+  <si>
+    <t>2735</t>
+  </si>
+  <si>
+    <t>d2:18</t>
+  </si>
+  <si>
+    <t>2736</t>
+  </si>
+  <si>
+    <t>♯d2:19</t>
+  </si>
+  <si>
+    <t>2737</t>
+  </si>
+  <si>
+    <t>♭e2:19</t>
+  </si>
+  <si>
+    <t>2738</t>
+  </si>
+  <si>
+    <t>e2:20</t>
+  </si>
+  <si>
+    <t>2739</t>
+  </si>
+  <si>
+    <t>f2:21</t>
+  </si>
+  <si>
+    <t>2740</t>
+  </si>
+  <si>
+    <t>♯f2:22</t>
+  </si>
+  <si>
+    <t>2741</t>
+  </si>
+  <si>
+    <t>♭g2:22</t>
+  </si>
+  <si>
+    <t>2742</t>
+  </si>
+  <si>
+    <t>g2:23</t>
+  </si>
+  <si>
+    <t>2743</t>
+  </si>
+  <si>
+    <t>♯g2:24</t>
+  </si>
+  <si>
+    <t>2744</t>
+  </si>
+  <si>
+    <t>♭a2:24</t>
+  </si>
+  <si>
+    <t>2745</t>
+  </si>
+  <si>
+    <t>a2:25</t>
+  </si>
+  <si>
+    <t>2746</t>
+  </si>
+  <si>
+    <t>♯a2:26</t>
+  </si>
+  <si>
+    <t>2747</t>
+  </si>
+  <si>
+    <t>♭b2:26</t>
+  </si>
+  <si>
+    <t>2748</t>
+  </si>
+  <si>
+    <t>b2:27</t>
+  </si>
+  <si>
+    <t>2749</t>
+  </si>
+  <si>
+    <t>c3:28</t>
+  </si>
+  <si>
+    <t>2750</t>
+  </si>
+  <si>
+    <t>♯c3:29</t>
+  </si>
+  <si>
+    <t>2751</t>
+  </si>
+  <si>
+    <t>♭d3:29</t>
+  </si>
+  <si>
+    <t>2752</t>
+  </si>
+  <si>
+    <t>d3:30</t>
+  </si>
+  <si>
+    <t>2753</t>
+  </si>
+  <si>
+    <t>♯d3:31</t>
+  </si>
+  <si>
+    <t>2754</t>
+  </si>
+  <si>
+    <t>♭e3:31</t>
+  </si>
+  <si>
+    <t>2755</t>
+  </si>
+  <si>
+    <t>e3:32</t>
+  </si>
+  <si>
+    <t>2756</t>
+  </si>
+  <si>
+    <t>f3:33</t>
+  </si>
+  <si>
+    <t>2757</t>
+  </si>
+  <si>
+    <t>♯f3:34</t>
+  </si>
+  <si>
+    <t>2758</t>
+  </si>
+  <si>
+    <t>♭g3:34</t>
+  </si>
+  <si>
+    <t>2759</t>
+  </si>
+  <si>
+    <t>g3:35</t>
+  </si>
+  <si>
+    <t>2760</t>
+  </si>
+  <si>
+    <t>♯g3:36</t>
+  </si>
+  <si>
+    <t>2761</t>
+  </si>
+  <si>
+    <t>♭a3:36</t>
+  </si>
+  <si>
+    <t>2762</t>
+  </si>
+  <si>
+    <t>a3:37</t>
+  </si>
+  <si>
+    <t>2763</t>
+  </si>
+  <si>
+    <t>♯a3:38</t>
+  </si>
+  <si>
+    <t>2764</t>
+  </si>
+  <si>
+    <t>♭b3:38</t>
+  </si>
+  <si>
+    <t>2765</t>
+  </si>
+  <si>
+    <t>b3:39</t>
+  </si>
+  <si>
+    <t>2766</t>
+  </si>
+  <si>
+    <t>c4:40</t>
+  </si>
+  <si>
+    <t>2767</t>
+  </si>
+  <si>
+    <t>♯c4:41</t>
+  </si>
+  <si>
+    <t>2768</t>
+  </si>
+  <si>
+    <t>♭d4:41</t>
+  </si>
+  <si>
+    <t>2769</t>
+  </si>
+  <si>
+    <t>d4:42</t>
+  </si>
+  <si>
+    <t>2770</t>
+  </si>
+  <si>
+    <t>♯d4:43</t>
+  </si>
+  <si>
+    <t>2771</t>
+  </si>
+  <si>
+    <t>♭e4:43</t>
+  </si>
+  <si>
+    <t>2772</t>
+  </si>
+  <si>
+    <t>e4:44</t>
+  </si>
+  <si>
+    <t>2773</t>
+  </si>
+  <si>
+    <t>f4:45</t>
+  </si>
+  <si>
+    <t>2774</t>
+  </si>
+  <si>
+    <t>♯f4:46</t>
+  </si>
+  <si>
+    <t>2775</t>
+  </si>
+  <si>
+    <t>♭g4:46</t>
+  </si>
+  <si>
+    <t>2776</t>
+  </si>
+  <si>
+    <t>g4:47</t>
+  </si>
+  <si>
+    <t>2777</t>
+  </si>
+  <si>
+    <t>♯g4:48</t>
+  </si>
+  <si>
+    <t>2778</t>
+  </si>
+  <si>
+    <t>♭a4:48</t>
+  </si>
+  <si>
+    <t>2779</t>
+  </si>
+  <si>
+    <t>a4:49</t>
+  </si>
+  <si>
+    <t>2780</t>
+  </si>
+  <si>
+    <t>♯a4:50</t>
+  </si>
+  <si>
+    <t>2781</t>
+  </si>
+  <si>
+    <t>♭b4:50</t>
+  </si>
+  <si>
+    <t>2782</t>
+  </si>
+  <si>
+    <t>b4:51</t>
+  </si>
+  <si>
+    <t>2783</t>
+  </si>
+  <si>
+    <t>c5:52</t>
+  </si>
+  <si>
+    <t>2784</t>
+  </si>
+  <si>
+    <t>♯c5:53</t>
+  </si>
+  <si>
+    <t>2785</t>
+  </si>
+  <si>
+    <t>♭d5:53</t>
+  </si>
+  <si>
+    <t>2786</t>
+  </si>
+  <si>
+    <t>d5:54</t>
+  </si>
+  <si>
+    <t>2787</t>
+  </si>
+  <si>
+    <t>♯d5:55</t>
+  </si>
+  <si>
+    <t>2788</t>
+  </si>
+  <si>
+    <t>♭e5:55</t>
+  </si>
+  <si>
+    <t>2789</t>
+  </si>
+  <si>
+    <t>e5:56</t>
+  </si>
+  <si>
+    <t>2790</t>
+  </si>
+  <si>
+    <t>f5:57</t>
+  </si>
+  <si>
+    <t>2791</t>
+  </si>
+  <si>
+    <t>♯f5:58</t>
+  </si>
+  <si>
+    <t>2792</t>
+  </si>
+  <si>
+    <t>♭g5:58</t>
+  </si>
+  <si>
+    <t>2793</t>
+  </si>
+  <si>
+    <t>g5:59</t>
+  </si>
+  <si>
+    <t>2794</t>
+  </si>
+  <si>
+    <t>♯g5:60</t>
+  </si>
+  <si>
+    <t>2795</t>
+  </si>
+  <si>
+    <t>♭a5:60</t>
+  </si>
+  <si>
+    <t>2796</t>
+  </si>
+  <si>
+    <t>a5:61</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>♯a5:62</t>
+  </si>
+  <si>
+    <t>2798</t>
+  </si>
+  <si>
+    <t>♭b5:62</t>
+  </si>
+  <si>
+    <t>2799</t>
+  </si>
+  <si>
+    <t>b5:63</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>c6:64</t>
+  </si>
+  <si>
+    <t>2801</t>
+  </si>
+  <si>
+    <t>♯c6:65</t>
+  </si>
+  <si>
+    <t>2802</t>
+  </si>
+  <si>
+    <t>♭d6:65</t>
+  </si>
+  <si>
+    <t>2803</t>
+  </si>
+  <si>
+    <t>d6:66</t>
+  </si>
+  <si>
+    <t>2804</t>
+  </si>
+  <si>
+    <t>♯d6:67</t>
+  </si>
+  <si>
+    <t>2805</t>
+  </si>
+  <si>
+    <t>♭e6:67</t>
+  </si>
+  <si>
+    <t>2806</t>
+  </si>
+  <si>
+    <t>e6:68</t>
+  </si>
+  <si>
+    <t>2807</t>
+  </si>
+  <si>
+    <t>f6:69</t>
+  </si>
+  <si>
+    <t>2808</t>
+  </si>
+  <si>
+    <t>♯f6:70</t>
+  </si>
+  <si>
+    <t>2809</t>
+  </si>
+  <si>
+    <t>♭g6:70</t>
+  </si>
+  <si>
+    <t>2810</t>
+  </si>
+  <si>
+    <t>g6:71</t>
+  </si>
+  <si>
+    <t>2811</t>
+  </si>
+  <si>
+    <t>♯g6:72</t>
+  </si>
+  <si>
+    <t>2812</t>
+  </si>
+  <si>
+    <t>♭a6:72</t>
+  </si>
+  <si>
+    <t>2813</t>
+  </si>
+  <si>
+    <t>a6:73</t>
+  </si>
+  <si>
+    <t>2814</t>
+  </si>
+  <si>
+    <t>♯a6:74</t>
+  </si>
+  <si>
+    <t>2815</t>
+  </si>
+  <si>
+    <t>♭b6:74</t>
+  </si>
+  <si>
+    <t>2816</t>
+  </si>
+  <si>
+    <t>b6:75</t>
+  </si>
+  <si>
+    <t>2817</t>
+  </si>
+  <si>
+    <t>c7:76</t>
+  </si>
+  <si>
+    <t>2818</t>
+  </si>
+  <si>
+    <t>♯c7:77</t>
+  </si>
+  <si>
+    <t>2819</t>
+  </si>
+  <si>
+    <t>♭d7:77</t>
+  </si>
+  <si>
+    <t>2820</t>
+  </si>
+  <si>
+    <t>d7:78</t>
+  </si>
+  <si>
+    <t>2821</t>
+  </si>
+  <si>
+    <t>♯d7:79</t>
+  </si>
+  <si>
+    <t>2822</t>
+  </si>
+  <si>
+    <t>♭e7:79</t>
+  </si>
+  <si>
+    <t>2823</t>
+  </si>
+  <si>
+    <t>e7:80</t>
+  </si>
+  <si>
+    <t>2824</t>
+  </si>
+  <si>
+    <t>f7:81</t>
+  </si>
+  <si>
+    <t>2825</t>
+  </si>
+  <si>
+    <t>♯f7:82</t>
+  </si>
+  <si>
+    <t>2826</t>
+  </si>
+  <si>
+    <t>♭g7:82</t>
+  </si>
+  <si>
+    <t>2827</t>
+  </si>
+  <si>
+    <t>g7:83</t>
+  </si>
+  <si>
+    <t>2828</t>
+  </si>
+  <si>
+    <t>♯g7:84</t>
+  </si>
+  <si>
+    <t>2829</t>
+  </si>
+  <si>
+    <t>♭a7:84</t>
+  </si>
+  <si>
+    <t>2830</t>
+  </si>
+  <si>
+    <t>a7:85</t>
+  </si>
+  <si>
+    <t>2831</t>
+  </si>
+  <si>
+    <t>♯a7:86</t>
+  </si>
+  <si>
+    <t>2832</t>
+  </si>
+  <si>
+    <t>♭b7:86</t>
+  </si>
+  <si>
+    <t>2833</t>
+  </si>
+  <si>
+    <t>b7:87</t>
+  </si>
+  <si>
+    <t>2834</t>
+  </si>
+  <si>
+    <t>c8:88</t>
+  </si>
+  <si>
+    <t>2835</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>nothing comes from nothing (Idiom)</t>
+  </si>
+  <si>
+    <t>2836</t>
+  </si>
+  <si>
+    <t>0=0</t>
+  </si>
+  <si>
+    <t>nothing leads to nothing (Idiom)</t>
+  </si>
+  <si>
+    <t>2837</t>
+  </si>
+  <si>
+    <t>≠{?∞ }…=|x|</t>
+  </si>
+  <si>
+    <t>we are not just thinking about the future, we are making it</t>
+  </si>
+  <si>
+    <t>2838</t>
+  </si>
+  <si>
+    <t>≠{Q?}</t>
+  </si>
+  <si>
+    <t>not just asking</t>
+  </si>
+  <si>
+    <t>2839</t>
+  </si>
+  <si>
+    <t>≠{Q?…}</t>
+  </si>
+  <si>
+    <t>not just questioning</t>
+  </si>
+  <si>
+    <t>2840</t>
+  </si>
+  <si>
+    <t>≠{Q!}</t>
+  </si>
+  <si>
+    <t>not just thinking</t>
+  </si>
+  <si>
+    <t>2841</t>
+  </si>
+  <si>
+    <t>{_|_@}…{_|_∞}</t>
+  </si>
+  <si>
+    <t>human development</t>
+  </si>
+  <si>
+    <t>2842</t>
+  </si>
+  <si>
+    <t>[/]</t>
+  </si>
+  <si>
+    <t>sol, sun</t>
+  </si>
+  <si>
+    <t>2843</t>
+  </si>
+  <si>
+    <t>[?]</t>
+  </si>
+  <si>
+    <t>soul</t>
+  </si>
+  <si>
+    <t>2844</t>
+  </si>
+  <si>
+    <t>[o]</t>
+  </si>
+  <si>
+    <t>terra</t>
+  </si>
+  <si>
+    <t>2845</t>
+  </si>
+  <si>
+    <t>[≠o]</t>
+  </si>
+  <si>
+    <t>not from this earth</t>
+  </si>
+  <si>
+    <t>2846</t>
+  </si>
+  <si>
+    <t>[∅]</t>
+  </si>
+  <si>
+    <t>saturn</t>
+  </si>
+  <si>
+    <t>2847</t>
+  </si>
+  <si>
+    <t>=[≠o]=</t>
+  </si>
+  <si>
+    <t>extraterrestrial (adj.)</t>
+  </si>
+  <si>
+    <t>2848</t>
+  </si>
+  <si>
+    <t>≡[≠o]≡</t>
+  </si>
+  <si>
+    <t>subterraneously (adv.)</t>
+  </si>
+  <si>
+    <t>2849</t>
+  </si>
+  <si>
+    <t>¢C</t>
+  </si>
+  <si>
+    <t>crescent moon</t>
+  </si>
+  <si>
+    <t>2850</t>
+  </si>
+  <si>
+    <t>fingernail moon</t>
+  </si>
+  <si>
+    <t>2851</t>
+  </si>
+  <si>
+    <t>sickle moon</t>
+  </si>
+  <si>
+    <t>2852</t>
+  </si>
+  <si>
+    <t>[/:C:O]</t>
+  </si>
+  <si>
+    <t>solar eclipse</t>
+  </si>
+  <si>
+    <t>2853</t>
+  </si>
+  <si>
+    <t>[/:O:C]</t>
+  </si>
+  <si>
+    <t>lunar eclipse</t>
+  </si>
+  <si>
+    <t>2854</t>
+  </si>
+  <si>
+    <t>[/C**]</t>
+  </si>
+  <si>
+    <t>sun, moon and stars</t>
+  </si>
+  <si>
+    <t>2855</t>
+  </si>
+  <si>
+    <t>**||</t>
+  </si>
+  <si>
+    <t>stars and stripes</t>
+  </si>
+  <si>
+    <t>2856</t>
+  </si>
+  <si>
+    <t>**||∞</t>
+  </si>
+  <si>
+    <t>stars and stripes forever</t>
+  </si>
+  <si>
+    <t>2857</t>
+  </si>
+  <si>
+    <t>{**||≈</t>
+  </si>
+  <si>
+    <t>star spangled banner</t>
+  </si>
+  <si>
+    <t>2858</t>
+  </si>
+  <si>
+    <t>QuantumScript</t>
+  </si>
+  <si>
+    <t>2859</t>
+  </si>
+  <si>
+    <t>2860</t>
+  </si>
+  <si>
+    <t>2861</t>
+  </si>
+  <si>
+    <t>2862</t>
+  </si>
+  <si>
+    <t>2863</t>
+  </si>
+  <si>
+    <t>2864</t>
+  </si>
+  <si>
+    <t>2865</t>
+  </si>
+  <si>
+    <t>2866</t>
+  </si>
+  <si>
+    <t>2867</t>
+  </si>
+  <si>
+    <t>2868</t>
+  </si>
+  <si>
+    <t>2869</t>
+  </si>
+  <si>
+    <t>2870</t>
+  </si>
+  <si>
+    <t>2871</t>
+  </si>
+  <si>
+    <t>2872</t>
+  </si>
+  <si>
+    <t>2873</t>
+  </si>
+  <si>
+    <t>2874</t>
+  </si>
+  <si>
+    <t>2875</t>
+  </si>
+  <si>
+    <t>2876</t>
+  </si>
+  <si>
+    <t>2877</t>
+  </si>
+  <si>
+    <t>2878</t>
+  </si>
+  <si>
+    <t>2879</t>
+  </si>
+  <si>
+    <t>2880</t>
+  </si>
+  <si>
+    <t>2881</t>
+  </si>
+  <si>
+    <t>2882</t>
+  </si>
+  <si>
+    <t>2883</t>
+  </si>
+  <si>
+    <t>2884</t>
+  </si>
+  <si>
+    <t>2885</t>
+  </si>
+  <si>
+    <t>2886</t>
+  </si>
+  <si>
+    <t>2887</t>
+  </si>
+  <si>
+    <t>2888</t>
+  </si>
+  <si>
+    <t>2889</t>
+  </si>
+  <si>
+    <t>2890</t>
+  </si>
+  <si>
+    <t>2891</t>
+  </si>
+  <si>
+    <t>2892</t>
+  </si>
+  <si>
+    <t>2893</t>
+  </si>
+  <si>
+    <t>2894</t>
+  </si>
+  <si>
+    <t>2895</t>
+  </si>
+  <si>
+    <t>2896</t>
+  </si>
+  <si>
+    <t>2897</t>
+  </si>
+  <si>
+    <t>2898</t>
+  </si>
+  <si>
+    <t>2899</t>
+  </si>
+  <si>
+    <t>2900</t>
+  </si>
+  <si>
+    <t>2901</t>
+  </si>
+  <si>
+    <t>2902</t>
+  </si>
+  <si>
+    <t>2903</t>
+  </si>
+  <si>
+    <t>2904</t>
+  </si>
+  <si>
+    <t>2905</t>
+  </si>
+  <si>
+    <t>2906</t>
+  </si>
+  <si>
+    <t>2907</t>
+  </si>
+  <si>
+    <t>2908</t>
+  </si>
+  <si>
+    <t>2909</t>
+  </si>
+  <si>
+    <t>2910</t>
+  </si>
+  <si>
+    <t>2911</t>
+  </si>
+  <si>
+    <t>2912</t>
+  </si>
+  <si>
+    <t>2913</t>
+  </si>
+  <si>
+    <t>2914</t>
+  </si>
+  <si>
+    <t>2915</t>
+  </si>
+  <si>
+    <t>2916</t>
+  </si>
+  <si>
+    <t>2917</t>
+  </si>
+  <si>
+    <t>2918</t>
+  </si>
+  <si>
+    <t>2919</t>
+  </si>
+  <si>
+    <t>2920</t>
+  </si>
+  <si>
+    <t>2921</t>
+  </si>
+  <si>
+    <t>2922</t>
+  </si>
+  <si>
+    <t>2923</t>
+  </si>
+  <si>
+    <t>2924</t>
+  </si>
+  <si>
+    <t>2925</t>
+  </si>
+  <si>
+    <t>2926</t>
+  </si>
+  <si>
+    <t>2927</t>
+  </si>
+  <si>
+    <t>2928</t>
+  </si>
+  <si>
+    <t>2929</t>
+  </si>
+  <si>
+    <t>2930</t>
+  </si>
+  <si>
+    <t>2931</t>
+  </si>
+  <si>
+    <t>2932</t>
+  </si>
+  <si>
+    <t>2933</t>
+  </si>
+  <si>
+    <t>2934</t>
+  </si>
+  <si>
+    <t>2935</t>
+  </si>
+  <si>
+    <t>2936</t>
+  </si>
+  <si>
+    <t>2937</t>
+  </si>
+  <si>
+    <t>2938</t>
+  </si>
+  <si>
+    <t>2939</t>
+  </si>
+  <si>
+    <t>2940</t>
+  </si>
+  <si>
+    <t>2941</t>
+  </si>
+  <si>
+    <t>2942</t>
+  </si>
+  <si>
+    <t>2943</t>
+  </si>
+  <si>
+    <t>2944</t>
+  </si>
+  <si>
+    <t>2945</t>
+  </si>
+  <si>
+    <t>2946</t>
+  </si>
+  <si>
+    <t>2947</t>
+  </si>
+  <si>
+    <t>2948</t>
+  </si>
+  <si>
+    <t>2949</t>
+  </si>
+  <si>
+    <t>2950</t>
+  </si>
+  <si>
+    <t>2951</t>
+  </si>
+  <si>
+    <t>2952</t>
+  </si>
+  <si>
+    <t>2953</t>
+  </si>
+  <si>
+    <t>2954</t>
+  </si>
+  <si>
+    <t>2955</t>
+  </si>
+  <si>
+    <t>2956</t>
+  </si>
+  <si>
+    <t>2957</t>
+  </si>
+  <si>
+    <t>2958</t>
+  </si>
+  <si>
+    <t>2959</t>
+  </si>
+  <si>
+    <t>2960</t>
+  </si>
+  <si>
+    <t>2961</t>
+  </si>
+  <si>
+    <t>2962</t>
+  </si>
+  <si>
+    <t>2963</t>
+  </si>
+  <si>
+    <t>2964</t>
+  </si>
+  <si>
+    <t>2965</t>
+  </si>
+  <si>
+    <t>2966</t>
+  </si>
+  <si>
+    <t>2967</t>
+  </si>
+  <si>
+    <t>2968</t>
+  </si>
+  <si>
+    <t>2969</t>
+  </si>
+  <si>
+    <t>2970</t>
+  </si>
+  <si>
+    <t>2971</t>
+  </si>
+  <si>
+    <t>2972</t>
+  </si>
+  <si>
+    <t>2973</t>
+  </si>
+  <si>
+    <t>2974</t>
+  </si>
+  <si>
+    <t>2975</t>
+  </si>
+  <si>
+    <t>2976</t>
+  </si>
+  <si>
+    <t>2977</t>
+  </si>
+  <si>
+    <t>2978</t>
+  </si>
+  <si>
+    <t>2979</t>
+  </si>
+  <si>
+    <t>2980</t>
+  </si>
+  <si>
+    <t>2981</t>
+  </si>
+  <si>
+    <t>2982</t>
+  </si>
+  <si>
+    <t>2983</t>
+  </si>
+  <si>
+    <t>2984</t>
+  </si>
+  <si>
+    <t>2985</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>2987</t>
+  </si>
+  <si>
+    <t>2988</t>
+  </si>
+  <si>
+    <t>2989</t>
+  </si>
+  <si>
+    <t>2990</t>
+  </si>
+  <si>
+    <t>2991</t>
+  </si>
+  <si>
+    <t>2992</t>
+  </si>
+  <si>
+    <t>2993</t>
+  </si>
+  <si>
+    <t>2994</t>
+  </si>
+  <si>
+    <t>2995</t>
+  </si>
+  <si>
+    <t>2996</t>
+  </si>
+  <si>
+    <t>2997</t>
+  </si>
+  <si>
+    <t>2998</t>
+  </si>
+  <si>
+    <t>2999</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>3007</t>
+  </si>
+  <si>
+    <t>3008</t>
+  </si>
+  <si>
+    <t>3009</t>
+  </si>
+  <si>
+    <t>3010</t>
+  </si>
+  <si>
+    <t>3011</t>
+  </si>
+  <si>
+    <t>3012</t>
+  </si>
+  <si>
+    <t>3013</t>
+  </si>
+  <si>
+    <t>3014</t>
+  </si>
+  <si>
+    <t>3015</t>
+  </si>
+  <si>
+    <t>3016</t>
+  </si>
+  <si>
+    <t>3017</t>
+  </si>
+  <si>
+    <t>3018</t>
+  </si>
+  <si>
+    <t>3019</t>
+  </si>
+  <si>
+    <t>3020</t>
+  </si>
+  <si>
+    <t>3021</t>
+  </si>
+  <si>
+    <t>3022</t>
+  </si>
+  <si>
+    <t>3023</t>
+  </si>
+  <si>
+    <t>3024</t>
+  </si>
+  <si>
+    <t>3025</t>
+  </si>
+  <si>
+    <t>3026</t>
+  </si>
+  <si>
+    <t>3027</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>3029</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>3031</t>
+  </si>
+  <si>
+    <t>3032</t>
+  </si>
+  <si>
+    <t>3033</t>
+  </si>
+  <si>
+    <t>3034</t>
+  </si>
+  <si>
+    <t>3035</t>
+  </si>
+  <si>
+    <t>3036</t>
+  </si>
+  <si>
+    <t>3037</t>
+  </si>
+  <si>
+    <t>3038</t>
+  </si>
+  <si>
+    <t>3039</t>
+  </si>
+  <si>
+    <t>3040</t>
+  </si>
+  <si>
+    <t>3041</t>
+  </si>
+  <si>
+    <t>3042</t>
+  </si>
+  <si>
+    <t>3043</t>
+  </si>
+  <si>
+    <t>3044</t>
+  </si>
+  <si>
+    <t>3045</t>
+  </si>
+  <si>
+    <t>3046</t>
+  </si>
+  <si>
+    <t>3047</t>
+  </si>
+  <si>
+    <t>3048</t>
+  </si>
+  <si>
+    <t>3049</t>
+  </si>
+  <si>
+    <t>3050</t>
+  </si>
+  <si>
+    <t>{ ˙}</t>
+  </si>
+  <si>
+    <t>UiPath (non-official)</t>
+  </si>
+  <si>
+    <t>U+007B; U+02D9; U+007D</t>
+  </si>
+  <si>
+    <t>3051</t>
+  </si>
+  <si>
+    <t>{o/o}</t>
+  </si>
+  <si>
+    <t>somebody is meeting somebody (with Emoticon: roger)</t>
+  </si>
+  <si>
+    <t>U+007B; U+006F; U+002F; U+006F; +007D</t>
+  </si>
+  <si>
+    <t>3052</t>
+  </si>
+  <si>
+    <t>⎡˙⎦</t>
+  </si>
+  <si>
+    <t>someone is here</t>
+  </si>
+  <si>
+    <t>U+23A1; U+02D9; U+23A6</t>
+  </si>
+  <si>
+    <t>3053</t>
+  </si>
+  <si>
+    <t>˙⎡ ⎦</t>
+  </si>
+  <si>
+    <t>someone needs space</t>
+  </si>
+  <si>
+    <t>U+02D9; U+23A1; U+23A6</t>
+  </si>
+  <si>
+    <t>3054</t>
+  </si>
+  <si>
+    <t>{ ¨ }</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>U+007B; U+00A8; U+007D</t>
+  </si>
+  <si>
+    <t>3055</t>
+  </si>
+  <si>
+    <t>://{o/o}</t>
+  </si>
+  <si>
+    <t>sniffing [someone is meeting somebody (with Emoticon:  roger) with prefixed syllable: hyper/cyber]</t>
+  </si>
+  <si>
+    <t>U+003A; U+006F; U+006F; U+007B; U+006F; U+002F; U+006F; +007D</t>
+  </si>
+  <si>
+    <t>3056</t>
+  </si>
+  <si>
+    <t>/{ ˙}</t>
+  </si>
+  <si>
+    <t>Pathfinder</t>
+  </si>
+  <si>
+    <t>U+002F; U+007B; U+02D9; U+007D</t>
+  </si>
+  <si>
+    <t>3057</t>
+  </si>
+  <si>
+    <t>://≡⋮⋮⋮</t>
+  </si>
+  <si>
+    <t>to be IT literate [user-elementary layer (burger sign/trigram heaven) and 3times vertical ellipsis (with Emoticon:  roger) with prefixed syllable: hyper/cyber]</t>
+  </si>
+  <si>
+    <t>U+003A; U+006F; U+006F; U+2261; U+22EE; U+22EE; U+22EE</t>
   </si>
 </sst>
 </file>
@@ -39608,7 +41231,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2706"/>
+  <dimension ref="A1:F3053"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -39619,7 +41242,7 @@
     <col min="1" max="1" width="6.35156" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.1953" style="1" customWidth="1"/>
     <col min="3" max="3" width="56.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.8906" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.0859" style="1" customWidth="1"/>
     <col min="6" max="6" width="86.9062" style="1" customWidth="1"/>
     <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
@@ -87914,6 +89537,5958 @@
       <c r="F2706" t="s" s="19">
         <v>8943</v>
       </c>
+    </row>
+    <row r="2707" ht="23.15" customHeight="1">
+      <c r="A2707" t="s" s="10">
+        <v>8945</v>
+      </c>
+      <c r="B2707" t="s" s="25">
+        <v>8946</v>
+      </c>
+      <c r="C2707" t="s" s="12">
+        <v>5118</v>
+      </c>
+      <c r="D2707" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2707" s="13"/>
+      <c r="F2707" s="28"/>
+    </row>
+    <row r="2708" ht="23.15" customHeight="1">
+      <c r="A2708" t="s" s="10">
+        <v>8948</v>
+      </c>
+      <c r="B2708" t="s" s="25">
+        <v>8949</v>
+      </c>
+      <c r="C2708" t="s" s="12">
+        <v>5121</v>
+      </c>
+      <c r="D2708" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2708" s="13"/>
+      <c r="F2708" s="28"/>
+    </row>
+    <row r="2709" ht="23.15" customHeight="1">
+      <c r="A2709" t="s" s="10">
+        <v>8950</v>
+      </c>
+      <c r="B2709" t="s" s="25">
+        <v>8951</v>
+      </c>
+      <c r="C2709" t="s" s="12">
+        <v>5124</v>
+      </c>
+      <c r="D2709" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2709" s="13"/>
+      <c r="F2709" s="28"/>
+    </row>
+    <row r="2710" ht="23.15" customHeight="1">
+      <c r="A2710" t="s" s="10">
+        <v>8952</v>
+      </c>
+      <c r="B2710" t="s" s="25">
+        <v>8953</v>
+      </c>
+      <c r="C2710" t="s" s="12">
+        <v>5127</v>
+      </c>
+      <c r="D2710" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2710" s="13"/>
+      <c r="F2710" s="28"/>
+    </row>
+    <row r="2711" ht="23.15" customHeight="1">
+      <c r="A2711" t="s" s="10">
+        <v>8954</v>
+      </c>
+      <c r="B2711" t="s" s="25">
+        <v>8955</v>
+      </c>
+      <c r="C2711" t="s" s="12">
+        <v>5130</v>
+      </c>
+      <c r="D2711" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2711" s="13"/>
+      <c r="F2711" s="28"/>
+    </row>
+    <row r="2712" ht="23.15" customHeight="1">
+      <c r="A2712" t="s" s="10">
+        <v>8956</v>
+      </c>
+      <c r="B2712" t="s" s="25">
+        <v>8957</v>
+      </c>
+      <c r="C2712" t="s" s="12">
+        <v>5133</v>
+      </c>
+      <c r="D2712" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2712" s="13"/>
+      <c r="F2712" s="28"/>
+    </row>
+    <row r="2713" ht="23.15" customHeight="1">
+      <c r="A2713" t="s" s="10">
+        <v>8958</v>
+      </c>
+      <c r="B2713" t="s" s="25">
+        <v>8959</v>
+      </c>
+      <c r="C2713" t="s" s="12">
+        <v>5136</v>
+      </c>
+      <c r="D2713" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2713" s="13"/>
+      <c r="F2713" s="28"/>
+    </row>
+    <row r="2714" ht="23.15" customHeight="1">
+      <c r="A2714" t="s" s="10">
+        <v>8960</v>
+      </c>
+      <c r="B2714" t="s" s="25">
+        <v>8961</v>
+      </c>
+      <c r="C2714" t="s" s="12">
+        <v>5139</v>
+      </c>
+      <c r="D2714" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2714" s="13"/>
+      <c r="F2714" s="28"/>
+    </row>
+    <row r="2715" ht="23.15" customHeight="1">
+      <c r="A2715" t="s" s="10">
+        <v>8962</v>
+      </c>
+      <c r="B2715" t="s" s="25">
+        <v>8963</v>
+      </c>
+      <c r="C2715" t="s" s="12">
+        <v>5142</v>
+      </c>
+      <c r="D2715" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2715" s="13"/>
+      <c r="F2715" s="28"/>
+    </row>
+    <row r="2716" ht="23.15" customHeight="1">
+      <c r="A2716" t="s" s="10">
+        <v>8964</v>
+      </c>
+      <c r="B2716" t="s" s="25">
+        <v>8965</v>
+      </c>
+      <c r="C2716" t="s" s="12">
+        <v>5145</v>
+      </c>
+      <c r="D2716" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2716" s="13"/>
+      <c r="F2716" s="28"/>
+    </row>
+    <row r="2717" ht="23.15" customHeight="1">
+      <c r="A2717" t="s" s="10">
+        <v>8966</v>
+      </c>
+      <c r="B2717" t="s" s="25">
+        <v>8967</v>
+      </c>
+      <c r="C2717" t="s" s="12">
+        <v>5148</v>
+      </c>
+      <c r="D2717" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2717" s="13"/>
+      <c r="F2717" s="28"/>
+    </row>
+    <row r="2718" ht="23.15" customHeight="1">
+      <c r="A2718" t="s" s="10">
+        <v>8968</v>
+      </c>
+      <c r="B2718" t="s" s="25">
+        <v>8969</v>
+      </c>
+      <c r="C2718" t="s" s="12">
+        <v>5151</v>
+      </c>
+      <c r="D2718" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2718" s="13"/>
+      <c r="F2718" s="28"/>
+    </row>
+    <row r="2719" ht="23.15" customHeight="1">
+      <c r="A2719" t="s" s="10">
+        <v>8970</v>
+      </c>
+      <c r="B2719" t="s" s="25">
+        <v>8971</v>
+      </c>
+      <c r="C2719" t="s" s="12">
+        <v>5154</v>
+      </c>
+      <c r="D2719" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2719" s="13"/>
+      <c r="F2719" s="28"/>
+    </row>
+    <row r="2720" ht="23.15" customHeight="1">
+      <c r="A2720" t="s" s="10">
+        <v>8972</v>
+      </c>
+      <c r="B2720" t="s" s="25">
+        <v>8973</v>
+      </c>
+      <c r="C2720" t="s" s="12">
+        <v>5157</v>
+      </c>
+      <c r="D2720" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2720" s="13"/>
+      <c r="F2720" s="28"/>
+    </row>
+    <row r="2721" ht="23.15" customHeight="1">
+      <c r="A2721" t="s" s="10">
+        <v>8974</v>
+      </c>
+      <c r="B2721" t="s" s="25">
+        <v>8975</v>
+      </c>
+      <c r="C2721" t="s" s="12">
+        <v>5160</v>
+      </c>
+      <c r="D2721" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2721" s="13"/>
+      <c r="F2721" s="28"/>
+    </row>
+    <row r="2722" ht="23.15" customHeight="1">
+      <c r="A2722" t="s" s="10">
+        <v>8976</v>
+      </c>
+      <c r="B2722" t="s" s="25">
+        <v>8977</v>
+      </c>
+      <c r="C2722" t="s" s="12">
+        <v>5163</v>
+      </c>
+      <c r="D2722" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2722" s="13"/>
+      <c r="F2722" s="28"/>
+    </row>
+    <row r="2723" ht="23.15" customHeight="1">
+      <c r="A2723" t="s" s="10">
+        <v>8978</v>
+      </c>
+      <c r="B2723" t="s" s="25">
+        <v>8979</v>
+      </c>
+      <c r="C2723" t="s" s="12">
+        <v>5166</v>
+      </c>
+      <c r="D2723" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2723" s="13"/>
+      <c r="F2723" s="28"/>
+    </row>
+    <row r="2724" ht="23.15" customHeight="1">
+      <c r="A2724" t="s" s="10">
+        <v>8980</v>
+      </c>
+      <c r="B2724" t="s" s="25">
+        <v>8981</v>
+      </c>
+      <c r="C2724" t="s" s="12">
+        <v>5169</v>
+      </c>
+      <c r="D2724" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2724" s="13"/>
+      <c r="F2724" s="28"/>
+    </row>
+    <row r="2725" ht="23.15" customHeight="1">
+      <c r="A2725" t="s" s="10">
+        <v>8982</v>
+      </c>
+      <c r="B2725" t="s" s="25">
+        <v>8983</v>
+      </c>
+      <c r="C2725" t="s" s="12">
+        <v>5172</v>
+      </c>
+      <c r="D2725" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2725" s="13"/>
+      <c r="F2725" s="28"/>
+    </row>
+    <row r="2726" ht="23.15" customHeight="1">
+      <c r="A2726" t="s" s="10">
+        <v>8984</v>
+      </c>
+      <c r="B2726" t="s" s="25">
+        <v>8985</v>
+      </c>
+      <c r="C2726" t="s" s="12">
+        <v>5175</v>
+      </c>
+      <c r="D2726" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2726" s="13"/>
+      <c r="F2726" s="28"/>
+    </row>
+    <row r="2727" ht="23.15" customHeight="1">
+      <c r="A2727" t="s" s="10">
+        <v>8986</v>
+      </c>
+      <c r="B2727" t="s" s="25">
+        <v>8987</v>
+      </c>
+      <c r="C2727" t="s" s="12">
+        <v>5178</v>
+      </c>
+      <c r="D2727" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2727" s="13"/>
+      <c r="F2727" s="28"/>
+    </row>
+    <row r="2728" ht="23.15" customHeight="1">
+      <c r="A2728" t="s" s="10">
+        <v>8988</v>
+      </c>
+      <c r="B2728" t="s" s="25">
+        <v>8989</v>
+      </c>
+      <c r="C2728" t="s" s="12">
+        <v>5181</v>
+      </c>
+      <c r="D2728" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2728" s="13"/>
+      <c r="F2728" s="28"/>
+    </row>
+    <row r="2729" ht="23.15" customHeight="1">
+      <c r="A2729" t="s" s="10">
+        <v>8990</v>
+      </c>
+      <c r="B2729" t="s" s="25">
+        <v>8991</v>
+      </c>
+      <c r="C2729" t="s" s="12">
+        <v>5184</v>
+      </c>
+      <c r="D2729" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2729" s="13"/>
+      <c r="F2729" s="28"/>
+    </row>
+    <row r="2730" ht="23.15" customHeight="1">
+      <c r="A2730" t="s" s="10">
+        <v>8992</v>
+      </c>
+      <c r="B2730" t="s" s="25">
+        <v>8993</v>
+      </c>
+      <c r="C2730" t="s" s="12">
+        <v>5187</v>
+      </c>
+      <c r="D2730" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2730" s="13"/>
+      <c r="F2730" s="28"/>
+    </row>
+    <row r="2731" ht="23.15" customHeight="1">
+      <c r="A2731" t="s" s="10">
+        <v>8994</v>
+      </c>
+      <c r="B2731" t="s" s="25">
+        <v>8995</v>
+      </c>
+      <c r="C2731" t="s" s="12">
+        <v>5190</v>
+      </c>
+      <c r="D2731" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2731" s="13"/>
+      <c r="F2731" s="28"/>
+    </row>
+    <row r="2732" ht="23.15" customHeight="1">
+      <c r="A2732" t="s" s="10">
+        <v>8996</v>
+      </c>
+      <c r="B2732" t="s" s="25">
+        <v>8997</v>
+      </c>
+      <c r="C2732" t="s" s="12">
+        <v>5193</v>
+      </c>
+      <c r="D2732" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2732" s="13"/>
+      <c r="F2732" s="28"/>
+    </row>
+    <row r="2733" ht="23.15" customHeight="1">
+      <c r="A2733" t="s" s="10">
+        <v>8998</v>
+      </c>
+      <c r="B2733" t="s" s="25">
+        <v>8999</v>
+      </c>
+      <c r="C2733" t="s" s="12">
+        <v>5196</v>
+      </c>
+      <c r="D2733" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2733" s="13"/>
+      <c r="F2733" s="28"/>
+    </row>
+    <row r="2734" ht="23.15" customHeight="1">
+      <c r="A2734" t="s" s="10">
+        <v>9000</v>
+      </c>
+      <c r="B2734" t="s" s="25">
+        <v>9001</v>
+      </c>
+      <c r="C2734" t="s" s="12">
+        <v>5199</v>
+      </c>
+      <c r="D2734" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2734" s="13"/>
+      <c r="F2734" s="28"/>
+    </row>
+    <row r="2735" ht="23.15" customHeight="1">
+      <c r="A2735" t="s" s="10">
+        <v>9002</v>
+      </c>
+      <c r="B2735" t="s" s="25">
+        <v>9003</v>
+      </c>
+      <c r="C2735" t="s" s="12">
+        <v>5202</v>
+      </c>
+      <c r="D2735" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2735" s="13"/>
+      <c r="F2735" s="28"/>
+    </row>
+    <row r="2736" ht="23.15" customHeight="1">
+      <c r="A2736" t="s" s="10">
+        <v>9004</v>
+      </c>
+      <c r="B2736" t="s" s="25">
+        <v>9005</v>
+      </c>
+      <c r="C2736" t="s" s="12">
+        <v>5205</v>
+      </c>
+      <c r="D2736" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2736" s="13"/>
+      <c r="F2736" s="28"/>
+    </row>
+    <row r="2737" ht="23.15" customHeight="1">
+      <c r="A2737" t="s" s="10">
+        <v>9006</v>
+      </c>
+      <c r="B2737" t="s" s="25">
+        <v>9007</v>
+      </c>
+      <c r="C2737" t="s" s="12">
+        <v>5208</v>
+      </c>
+      <c r="D2737" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2737" s="13"/>
+      <c r="F2737" s="28"/>
+    </row>
+    <row r="2738" ht="23.15" customHeight="1">
+      <c r="A2738" t="s" s="10">
+        <v>9008</v>
+      </c>
+      <c r="B2738" t="s" s="25">
+        <v>9009</v>
+      </c>
+      <c r="C2738" t="s" s="12">
+        <v>5211</v>
+      </c>
+      <c r="D2738" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2738" s="13"/>
+      <c r="F2738" s="28"/>
+    </row>
+    <row r="2739" ht="23.15" customHeight="1">
+      <c r="A2739" t="s" s="10">
+        <v>9010</v>
+      </c>
+      <c r="B2739" t="s" s="25">
+        <v>9011</v>
+      </c>
+      <c r="C2739" t="s" s="12">
+        <v>5214</v>
+      </c>
+      <c r="D2739" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2739" s="13"/>
+      <c r="F2739" s="28"/>
+    </row>
+    <row r="2740" ht="23.15" customHeight="1">
+      <c r="A2740" t="s" s="10">
+        <v>9012</v>
+      </c>
+      <c r="B2740" t="s" s="25">
+        <v>9013</v>
+      </c>
+      <c r="C2740" t="s" s="12">
+        <v>5217</v>
+      </c>
+      <c r="D2740" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2740" s="13"/>
+      <c r="F2740" s="28"/>
+    </row>
+    <row r="2741" ht="23.15" customHeight="1">
+      <c r="A2741" t="s" s="10">
+        <v>9014</v>
+      </c>
+      <c r="B2741" t="s" s="25">
+        <v>9015</v>
+      </c>
+      <c r="C2741" t="s" s="12">
+        <v>5220</v>
+      </c>
+      <c r="D2741" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2741" s="13"/>
+      <c r="F2741" s="28"/>
+    </row>
+    <row r="2742" ht="23.15" customHeight="1">
+      <c r="A2742" t="s" s="10">
+        <v>9016</v>
+      </c>
+      <c r="B2742" t="s" s="25">
+        <v>9017</v>
+      </c>
+      <c r="C2742" t="s" s="12">
+        <v>5223</v>
+      </c>
+      <c r="D2742" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2742" s="13"/>
+      <c r="F2742" s="28"/>
+    </row>
+    <row r="2743" ht="23.15" customHeight="1">
+      <c r="A2743" t="s" s="10">
+        <v>9018</v>
+      </c>
+      <c r="B2743" t="s" s="25">
+        <v>9019</v>
+      </c>
+      <c r="C2743" t="s" s="12">
+        <v>5226</v>
+      </c>
+      <c r="D2743" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2743" s="13"/>
+      <c r="F2743" s="28"/>
+    </row>
+    <row r="2744" ht="23.15" customHeight="1">
+      <c r="A2744" t="s" s="10">
+        <v>9020</v>
+      </c>
+      <c r="B2744" t="s" s="25">
+        <v>9021</v>
+      </c>
+      <c r="C2744" t="s" s="12">
+        <v>5229</v>
+      </c>
+      <c r="D2744" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2744" s="13"/>
+      <c r="F2744" s="28"/>
+    </row>
+    <row r="2745" ht="23.15" customHeight="1">
+      <c r="A2745" t="s" s="10">
+        <v>9022</v>
+      </c>
+      <c r="B2745" t="s" s="25">
+        <v>9023</v>
+      </c>
+      <c r="C2745" t="s" s="12">
+        <v>5232</v>
+      </c>
+      <c r="D2745" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2745" s="13"/>
+      <c r="F2745" s="28"/>
+    </row>
+    <row r="2746" ht="23.15" customHeight="1">
+      <c r="A2746" t="s" s="10">
+        <v>9024</v>
+      </c>
+      <c r="B2746" t="s" s="25">
+        <v>9025</v>
+      </c>
+      <c r="C2746" t="s" s="12">
+        <v>5235</v>
+      </c>
+      <c r="D2746" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2746" s="13"/>
+      <c r="F2746" s="28"/>
+    </row>
+    <row r="2747" ht="23.15" customHeight="1">
+      <c r="A2747" t="s" s="10">
+        <v>9026</v>
+      </c>
+      <c r="B2747" t="s" s="25">
+        <v>9027</v>
+      </c>
+      <c r="C2747" t="s" s="12">
+        <v>5238</v>
+      </c>
+      <c r="D2747" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2747" s="13"/>
+      <c r="F2747" s="28"/>
+    </row>
+    <row r="2748" ht="23.15" customHeight="1">
+      <c r="A2748" t="s" s="10">
+        <v>9028</v>
+      </c>
+      <c r="B2748" t="s" s="25">
+        <v>9029</v>
+      </c>
+      <c r="C2748" t="s" s="12">
+        <v>5241</v>
+      </c>
+      <c r="D2748" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2748" s="13"/>
+      <c r="F2748" s="28"/>
+    </row>
+    <row r="2749" ht="23.15" customHeight="1">
+      <c r="A2749" t="s" s="10">
+        <v>9030</v>
+      </c>
+      <c r="B2749" t="s" s="25">
+        <v>9031</v>
+      </c>
+      <c r="C2749" t="s" s="12">
+        <v>5244</v>
+      </c>
+      <c r="D2749" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2749" s="13"/>
+      <c r="F2749" s="28"/>
+    </row>
+    <row r="2750" ht="23.15" customHeight="1">
+      <c r="A2750" t="s" s="10">
+        <v>9032</v>
+      </c>
+      <c r="B2750" t="s" s="25">
+        <v>9033</v>
+      </c>
+      <c r="C2750" t="s" s="12">
+        <v>5247</v>
+      </c>
+      <c r="D2750" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2750" s="13"/>
+      <c r="F2750" s="28"/>
+    </row>
+    <row r="2751" ht="23.15" customHeight="1">
+      <c r="A2751" t="s" s="10">
+        <v>9034</v>
+      </c>
+      <c r="B2751" t="s" s="25">
+        <v>9035</v>
+      </c>
+      <c r="C2751" t="s" s="12">
+        <v>5250</v>
+      </c>
+      <c r="D2751" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2751" s="13"/>
+      <c r="F2751" s="28"/>
+    </row>
+    <row r="2752" ht="23.15" customHeight="1">
+      <c r="A2752" t="s" s="10">
+        <v>9036</v>
+      </c>
+      <c r="B2752" t="s" s="25">
+        <v>9037</v>
+      </c>
+      <c r="C2752" t="s" s="12">
+        <v>5253</v>
+      </c>
+      <c r="D2752" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2752" s="13"/>
+      <c r="F2752" s="28"/>
+    </row>
+    <row r="2753" ht="23.15" customHeight="1">
+      <c r="A2753" t="s" s="10">
+        <v>9038</v>
+      </c>
+      <c r="B2753" t="s" s="25">
+        <v>9039</v>
+      </c>
+      <c r="C2753" t="s" s="12">
+        <v>5256</v>
+      </c>
+      <c r="D2753" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2753" s="13"/>
+      <c r="F2753" s="28"/>
+    </row>
+    <row r="2754" ht="23.15" customHeight="1">
+      <c r="A2754" t="s" s="10">
+        <v>9040</v>
+      </c>
+      <c r="B2754" t="s" s="25">
+        <v>9041</v>
+      </c>
+      <c r="C2754" t="s" s="12">
+        <v>5259</v>
+      </c>
+      <c r="D2754" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2754" s="13"/>
+      <c r="F2754" s="28"/>
+    </row>
+    <row r="2755" ht="23.15" customHeight="1">
+      <c r="A2755" t="s" s="10">
+        <v>9042</v>
+      </c>
+      <c r="B2755" t="s" s="25">
+        <v>9043</v>
+      </c>
+      <c r="C2755" t="s" s="12">
+        <v>5262</v>
+      </c>
+      <c r="D2755" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2755" s="13"/>
+      <c r="F2755" s="28"/>
+    </row>
+    <row r="2756" ht="23.15" customHeight="1">
+      <c r="A2756" t="s" s="10">
+        <v>9044</v>
+      </c>
+      <c r="B2756" t="s" s="25">
+        <v>9045</v>
+      </c>
+      <c r="C2756" t="s" s="12">
+        <v>5265</v>
+      </c>
+      <c r="D2756" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2756" s="13"/>
+      <c r="F2756" s="28"/>
+    </row>
+    <row r="2757" ht="23.15" customHeight="1">
+      <c r="A2757" t="s" s="10">
+        <v>9046</v>
+      </c>
+      <c r="B2757" t="s" s="25">
+        <v>9047</v>
+      </c>
+      <c r="C2757" t="s" s="12">
+        <v>5268</v>
+      </c>
+      <c r="D2757" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2757" s="13"/>
+      <c r="F2757" s="28"/>
+    </row>
+    <row r="2758" ht="23.15" customHeight="1">
+      <c r="A2758" t="s" s="10">
+        <v>9048</v>
+      </c>
+      <c r="B2758" t="s" s="25">
+        <v>9049</v>
+      </c>
+      <c r="C2758" t="s" s="12">
+        <v>5271</v>
+      </c>
+      <c r="D2758" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2758" s="13"/>
+      <c r="F2758" s="28"/>
+    </row>
+    <row r="2759" ht="23.15" customHeight="1">
+      <c r="A2759" t="s" s="10">
+        <v>9050</v>
+      </c>
+      <c r="B2759" t="s" s="25">
+        <v>9051</v>
+      </c>
+      <c r="C2759" t="s" s="12">
+        <v>5274</v>
+      </c>
+      <c r="D2759" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2759" s="13"/>
+      <c r="F2759" s="28"/>
+    </row>
+    <row r="2760" ht="23.15" customHeight="1">
+      <c r="A2760" t="s" s="10">
+        <v>9052</v>
+      </c>
+      <c r="B2760" t="s" s="25">
+        <v>9053</v>
+      </c>
+      <c r="C2760" t="s" s="12">
+        <v>5277</v>
+      </c>
+      <c r="D2760" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2760" s="13"/>
+      <c r="F2760" s="28"/>
+    </row>
+    <row r="2761" ht="23.15" customHeight="1">
+      <c r="A2761" t="s" s="10">
+        <v>9054</v>
+      </c>
+      <c r="B2761" t="s" s="25">
+        <v>9055</v>
+      </c>
+      <c r="C2761" t="s" s="12">
+        <v>5280</v>
+      </c>
+      <c r="D2761" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2761" s="13"/>
+      <c r="F2761" s="28"/>
+    </row>
+    <row r="2762" ht="23.15" customHeight="1">
+      <c r="A2762" t="s" s="10">
+        <v>9056</v>
+      </c>
+      <c r="B2762" t="s" s="25">
+        <v>9057</v>
+      </c>
+      <c r="C2762" t="s" s="12">
+        <v>5283</v>
+      </c>
+      <c r="D2762" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2762" s="13"/>
+      <c r="F2762" s="28"/>
+    </row>
+    <row r="2763" ht="23.15" customHeight="1">
+      <c r="A2763" t="s" s="10">
+        <v>9058</v>
+      </c>
+      <c r="B2763" t="s" s="25">
+        <v>9059</v>
+      </c>
+      <c r="C2763" t="s" s="12">
+        <v>5286</v>
+      </c>
+      <c r="D2763" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2763" s="13"/>
+      <c r="F2763" s="28"/>
+    </row>
+    <row r="2764" ht="23.15" customHeight="1">
+      <c r="A2764" t="s" s="10">
+        <v>9060</v>
+      </c>
+      <c r="B2764" t="s" s="25">
+        <v>9061</v>
+      </c>
+      <c r="C2764" t="s" s="12">
+        <v>5289</v>
+      </c>
+      <c r="D2764" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2764" s="13"/>
+      <c r="F2764" s="28"/>
+    </row>
+    <row r="2765" ht="23.15" customHeight="1">
+      <c r="A2765" t="s" s="10">
+        <v>9062</v>
+      </c>
+      <c r="B2765" t="s" s="25">
+        <v>9063</v>
+      </c>
+      <c r="C2765" t="s" s="12">
+        <v>5292</v>
+      </c>
+      <c r="D2765" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2765" s="13"/>
+      <c r="F2765" s="28"/>
+    </row>
+    <row r="2766" ht="23.15" customHeight="1">
+      <c r="A2766" t="s" s="10">
+        <v>9064</v>
+      </c>
+      <c r="B2766" t="s" s="25">
+        <v>9065</v>
+      </c>
+      <c r="C2766" t="s" s="12">
+        <v>5295</v>
+      </c>
+      <c r="D2766" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2766" s="13"/>
+      <c r="F2766" s="28"/>
+    </row>
+    <row r="2767" ht="23.15" customHeight="1">
+      <c r="A2767" t="s" s="10">
+        <v>9066</v>
+      </c>
+      <c r="B2767" t="s" s="25">
+        <v>9067</v>
+      </c>
+      <c r="C2767" t="s" s="12">
+        <v>5298</v>
+      </c>
+      <c r="D2767" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2767" s="13"/>
+      <c r="F2767" s="28"/>
+    </row>
+    <row r="2768" ht="23.15" customHeight="1">
+      <c r="A2768" t="s" s="10">
+        <v>9068</v>
+      </c>
+      <c r="B2768" t="s" s="25">
+        <v>9069</v>
+      </c>
+      <c r="C2768" t="s" s="12">
+        <v>5301</v>
+      </c>
+      <c r="D2768" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2768" s="13"/>
+      <c r="F2768" s="28"/>
+    </row>
+    <row r="2769" ht="23.15" customHeight="1">
+      <c r="A2769" t="s" s="10">
+        <v>9070</v>
+      </c>
+      <c r="B2769" t="s" s="25">
+        <v>9071</v>
+      </c>
+      <c r="C2769" t="s" s="12">
+        <v>5304</v>
+      </c>
+      <c r="D2769" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2769" s="13"/>
+      <c r="F2769" s="28"/>
+    </row>
+    <row r="2770" ht="23.15" customHeight="1">
+      <c r="A2770" t="s" s="10">
+        <v>9072</v>
+      </c>
+      <c r="B2770" t="s" s="25">
+        <v>9073</v>
+      </c>
+      <c r="C2770" t="s" s="12">
+        <v>5307</v>
+      </c>
+      <c r="D2770" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2770" s="13"/>
+      <c r="F2770" s="28"/>
+    </row>
+    <row r="2771" ht="23.15" customHeight="1">
+      <c r="A2771" t="s" s="10">
+        <v>9074</v>
+      </c>
+      <c r="B2771" t="s" s="25">
+        <v>9075</v>
+      </c>
+      <c r="C2771" t="s" s="12">
+        <v>5310</v>
+      </c>
+      <c r="D2771" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2771" s="13"/>
+      <c r="F2771" s="28"/>
+    </row>
+    <row r="2772" ht="23.15" customHeight="1">
+      <c r="A2772" t="s" s="10">
+        <v>9076</v>
+      </c>
+      <c r="B2772" t="s" s="25">
+        <v>9077</v>
+      </c>
+      <c r="C2772" t="s" s="12">
+        <v>5313</v>
+      </c>
+      <c r="D2772" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2772" s="13"/>
+      <c r="F2772" s="28"/>
+    </row>
+    <row r="2773" ht="23.15" customHeight="1">
+      <c r="A2773" t="s" s="10">
+        <v>9078</v>
+      </c>
+      <c r="B2773" t="s" s="25">
+        <v>9079</v>
+      </c>
+      <c r="C2773" t="s" s="12">
+        <v>5316</v>
+      </c>
+      <c r="D2773" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2773" s="13"/>
+      <c r="F2773" s="28"/>
+    </row>
+    <row r="2774" ht="23.15" customHeight="1">
+      <c r="A2774" t="s" s="10">
+        <v>9080</v>
+      </c>
+      <c r="B2774" t="s" s="25">
+        <v>9081</v>
+      </c>
+      <c r="C2774" t="s" s="12">
+        <v>5319</v>
+      </c>
+      <c r="D2774" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2774" s="13"/>
+      <c r="F2774" s="28"/>
+    </row>
+    <row r="2775" ht="23.15" customHeight="1">
+      <c r="A2775" t="s" s="10">
+        <v>9082</v>
+      </c>
+      <c r="B2775" t="s" s="25">
+        <v>9083</v>
+      </c>
+      <c r="C2775" t="s" s="12">
+        <v>5322</v>
+      </c>
+      <c r="D2775" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2775" s="13"/>
+      <c r="F2775" s="28"/>
+    </row>
+    <row r="2776" ht="23.15" customHeight="1">
+      <c r="A2776" t="s" s="10">
+        <v>9084</v>
+      </c>
+      <c r="B2776" t="s" s="25">
+        <v>9085</v>
+      </c>
+      <c r="C2776" t="s" s="12">
+        <v>5325</v>
+      </c>
+      <c r="D2776" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2776" s="13"/>
+      <c r="F2776" s="28"/>
+    </row>
+    <row r="2777" ht="23.15" customHeight="1">
+      <c r="A2777" t="s" s="10">
+        <v>9086</v>
+      </c>
+      <c r="B2777" t="s" s="25">
+        <v>9087</v>
+      </c>
+      <c r="C2777" t="s" s="12">
+        <v>5328</v>
+      </c>
+      <c r="D2777" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2777" s="13"/>
+      <c r="F2777" s="28"/>
+    </row>
+    <row r="2778" ht="23.15" customHeight="1">
+      <c r="A2778" t="s" s="10">
+        <v>9088</v>
+      </c>
+      <c r="B2778" t="s" s="25">
+        <v>9089</v>
+      </c>
+      <c r="C2778" t="s" s="12">
+        <v>5331</v>
+      </c>
+      <c r="D2778" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2778" s="13"/>
+      <c r="F2778" s="28"/>
+    </row>
+    <row r="2779" ht="23.15" customHeight="1">
+      <c r="A2779" t="s" s="10">
+        <v>9090</v>
+      </c>
+      <c r="B2779" t="s" s="25">
+        <v>9091</v>
+      </c>
+      <c r="C2779" t="s" s="12">
+        <v>5334</v>
+      </c>
+      <c r="D2779" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2779" s="13"/>
+      <c r="F2779" s="28"/>
+    </row>
+    <row r="2780" ht="23.15" customHeight="1">
+      <c r="A2780" t="s" s="10">
+        <v>9092</v>
+      </c>
+      <c r="B2780" t="s" s="25">
+        <v>9093</v>
+      </c>
+      <c r="C2780" t="s" s="12">
+        <v>5337</v>
+      </c>
+      <c r="D2780" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2780" s="13"/>
+      <c r="F2780" s="28"/>
+    </row>
+    <row r="2781" ht="23.15" customHeight="1">
+      <c r="A2781" t="s" s="10">
+        <v>9094</v>
+      </c>
+      <c r="B2781" t="s" s="25">
+        <v>9095</v>
+      </c>
+      <c r="C2781" t="s" s="12">
+        <v>5340</v>
+      </c>
+      <c r="D2781" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2781" s="13"/>
+      <c r="F2781" s="28"/>
+    </row>
+    <row r="2782" ht="23.15" customHeight="1">
+      <c r="A2782" t="s" s="10">
+        <v>9096</v>
+      </c>
+      <c r="B2782" t="s" s="25">
+        <v>9097</v>
+      </c>
+      <c r="C2782" t="s" s="12">
+        <v>5343</v>
+      </c>
+      <c r="D2782" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2782" s="13"/>
+      <c r="F2782" s="28"/>
+    </row>
+    <row r="2783" ht="23.15" customHeight="1">
+      <c r="A2783" t="s" s="10">
+        <v>9098</v>
+      </c>
+      <c r="B2783" t="s" s="25">
+        <v>9099</v>
+      </c>
+      <c r="C2783" t="s" s="12">
+        <v>5346</v>
+      </c>
+      <c r="D2783" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2783" s="13"/>
+      <c r="F2783" s="28"/>
+    </row>
+    <row r="2784" ht="23.15" customHeight="1">
+      <c r="A2784" t="s" s="10">
+        <v>9100</v>
+      </c>
+      <c r="B2784" t="s" s="25">
+        <v>9101</v>
+      </c>
+      <c r="C2784" t="s" s="12">
+        <v>5349</v>
+      </c>
+      <c r="D2784" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2784" s="13"/>
+      <c r="F2784" s="28"/>
+    </row>
+    <row r="2785" ht="23.15" customHeight="1">
+      <c r="A2785" t="s" s="10">
+        <v>9102</v>
+      </c>
+      <c r="B2785" t="s" s="25">
+        <v>9103</v>
+      </c>
+      <c r="C2785" t="s" s="12">
+        <v>5352</v>
+      </c>
+      <c r="D2785" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2785" s="13"/>
+      <c r="F2785" s="28"/>
+    </row>
+    <row r="2786" ht="23.15" customHeight="1">
+      <c r="A2786" t="s" s="10">
+        <v>9104</v>
+      </c>
+      <c r="B2786" t="s" s="25">
+        <v>9105</v>
+      </c>
+      <c r="C2786" t="s" s="12">
+        <v>5355</v>
+      </c>
+      <c r="D2786" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2786" s="13"/>
+      <c r="F2786" s="28"/>
+    </row>
+    <row r="2787" ht="23.15" customHeight="1">
+      <c r="A2787" t="s" s="10">
+        <v>9106</v>
+      </c>
+      <c r="B2787" t="s" s="25">
+        <v>9107</v>
+      </c>
+      <c r="C2787" t="s" s="12">
+        <v>5358</v>
+      </c>
+      <c r="D2787" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2787" s="13"/>
+      <c r="F2787" s="28"/>
+    </row>
+    <row r="2788" ht="23.15" customHeight="1">
+      <c r="A2788" t="s" s="10">
+        <v>9108</v>
+      </c>
+      <c r="B2788" t="s" s="25">
+        <v>9109</v>
+      </c>
+      <c r="C2788" t="s" s="12">
+        <v>5361</v>
+      </c>
+      <c r="D2788" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2788" s="13"/>
+      <c r="F2788" s="28"/>
+    </row>
+    <row r="2789" ht="23.15" customHeight="1">
+      <c r="A2789" t="s" s="10">
+        <v>9110</v>
+      </c>
+      <c r="B2789" t="s" s="25">
+        <v>9111</v>
+      </c>
+      <c r="C2789" t="s" s="12">
+        <v>5364</v>
+      </c>
+      <c r="D2789" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2789" s="13"/>
+      <c r="F2789" s="28"/>
+    </row>
+    <row r="2790" ht="23.15" customHeight="1">
+      <c r="A2790" t="s" s="10">
+        <v>9112</v>
+      </c>
+      <c r="B2790" t="s" s="25">
+        <v>9113</v>
+      </c>
+      <c r="C2790" t="s" s="12">
+        <v>5367</v>
+      </c>
+      <c r="D2790" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2790" s="13"/>
+      <c r="F2790" s="28"/>
+    </row>
+    <row r="2791" ht="23.15" customHeight="1">
+      <c r="A2791" t="s" s="10">
+        <v>9114</v>
+      </c>
+      <c r="B2791" t="s" s="25">
+        <v>9115</v>
+      </c>
+      <c r="C2791" t="s" s="12">
+        <v>5370</v>
+      </c>
+      <c r="D2791" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2791" s="13"/>
+      <c r="F2791" s="28"/>
+    </row>
+    <row r="2792" ht="23.15" customHeight="1">
+      <c r="A2792" t="s" s="10">
+        <v>9116</v>
+      </c>
+      <c r="B2792" t="s" s="25">
+        <v>9117</v>
+      </c>
+      <c r="C2792" t="s" s="12">
+        <v>5373</v>
+      </c>
+      <c r="D2792" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2792" s="13"/>
+      <c r="F2792" s="28"/>
+    </row>
+    <row r="2793" ht="23.15" customHeight="1">
+      <c r="A2793" t="s" s="10">
+        <v>9118</v>
+      </c>
+      <c r="B2793" t="s" s="25">
+        <v>9119</v>
+      </c>
+      <c r="C2793" t="s" s="12">
+        <v>5376</v>
+      </c>
+      <c r="D2793" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2793" s="13"/>
+      <c r="F2793" s="28"/>
+    </row>
+    <row r="2794" ht="23.15" customHeight="1">
+      <c r="A2794" t="s" s="10">
+        <v>9120</v>
+      </c>
+      <c r="B2794" t="s" s="25">
+        <v>9121</v>
+      </c>
+      <c r="C2794" t="s" s="12">
+        <v>5379</v>
+      </c>
+      <c r="D2794" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2794" s="13"/>
+      <c r="F2794" s="28"/>
+    </row>
+    <row r="2795" ht="23.15" customHeight="1">
+      <c r="A2795" t="s" s="10">
+        <v>9122</v>
+      </c>
+      <c r="B2795" t="s" s="25">
+        <v>9123</v>
+      </c>
+      <c r="C2795" t="s" s="12">
+        <v>5382</v>
+      </c>
+      <c r="D2795" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2795" s="13"/>
+      <c r="F2795" s="28"/>
+    </row>
+    <row r="2796" ht="23.15" customHeight="1">
+      <c r="A2796" t="s" s="10">
+        <v>9124</v>
+      </c>
+      <c r="B2796" t="s" s="25">
+        <v>9125</v>
+      </c>
+      <c r="C2796" t="s" s="12">
+        <v>5385</v>
+      </c>
+      <c r="D2796" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2796" s="13"/>
+      <c r="F2796" s="28"/>
+    </row>
+    <row r="2797" ht="23.15" customHeight="1">
+      <c r="A2797" t="s" s="10">
+        <v>9126</v>
+      </c>
+      <c r="B2797" t="s" s="25">
+        <v>9127</v>
+      </c>
+      <c r="C2797" t="s" s="12">
+        <v>5388</v>
+      </c>
+      <c r="D2797" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2797" s="13"/>
+      <c r="F2797" s="28"/>
+    </row>
+    <row r="2798" ht="23.15" customHeight="1">
+      <c r="A2798" t="s" s="10">
+        <v>9128</v>
+      </c>
+      <c r="B2798" t="s" s="25">
+        <v>9129</v>
+      </c>
+      <c r="C2798" t="s" s="12">
+        <v>5391</v>
+      </c>
+      <c r="D2798" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2798" s="13"/>
+      <c r="F2798" s="28"/>
+    </row>
+    <row r="2799" ht="23.15" customHeight="1">
+      <c r="A2799" t="s" s="10">
+        <v>9130</v>
+      </c>
+      <c r="B2799" t="s" s="25">
+        <v>9131</v>
+      </c>
+      <c r="C2799" t="s" s="12">
+        <v>5394</v>
+      </c>
+      <c r="D2799" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2799" s="13"/>
+      <c r="F2799" s="28"/>
+    </row>
+    <row r="2800" ht="23.15" customHeight="1">
+      <c r="A2800" t="s" s="10">
+        <v>9132</v>
+      </c>
+      <c r="B2800" t="s" s="25">
+        <v>9133</v>
+      </c>
+      <c r="C2800" t="s" s="12">
+        <v>5397</v>
+      </c>
+      <c r="D2800" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2800" s="13"/>
+      <c r="F2800" s="28"/>
+    </row>
+    <row r="2801" ht="23.15" customHeight="1">
+      <c r="A2801" t="s" s="10">
+        <v>9134</v>
+      </c>
+      <c r="B2801" t="s" s="25">
+        <v>9135</v>
+      </c>
+      <c r="C2801" t="s" s="12">
+        <v>5400</v>
+      </c>
+      <c r="D2801" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2801" s="13"/>
+      <c r="F2801" s="28"/>
+    </row>
+    <row r="2802" ht="23.15" customHeight="1">
+      <c r="A2802" t="s" s="10">
+        <v>9136</v>
+      </c>
+      <c r="B2802" t="s" s="25">
+        <v>9137</v>
+      </c>
+      <c r="C2802" t="s" s="12">
+        <v>5403</v>
+      </c>
+      <c r="D2802" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2802" s="13"/>
+      <c r="F2802" s="28"/>
+    </row>
+    <row r="2803" ht="23.15" customHeight="1">
+      <c r="A2803" t="s" s="10">
+        <v>9138</v>
+      </c>
+      <c r="B2803" t="s" s="25">
+        <v>9139</v>
+      </c>
+      <c r="C2803" t="s" s="12">
+        <v>5406</v>
+      </c>
+      <c r="D2803" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2803" s="13"/>
+      <c r="F2803" s="28"/>
+    </row>
+    <row r="2804" ht="23.15" customHeight="1">
+      <c r="A2804" t="s" s="10">
+        <v>9140</v>
+      </c>
+      <c r="B2804" t="s" s="25">
+        <v>9141</v>
+      </c>
+      <c r="C2804" t="s" s="12">
+        <v>5409</v>
+      </c>
+      <c r="D2804" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2804" s="13"/>
+      <c r="F2804" s="28"/>
+    </row>
+    <row r="2805" ht="23.15" customHeight="1">
+      <c r="A2805" t="s" s="10">
+        <v>9142</v>
+      </c>
+      <c r="B2805" t="s" s="25">
+        <v>9143</v>
+      </c>
+      <c r="C2805" t="s" s="12">
+        <v>5412</v>
+      </c>
+      <c r="D2805" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2805" s="13"/>
+      <c r="F2805" s="28"/>
+    </row>
+    <row r="2806" ht="23.15" customHeight="1">
+      <c r="A2806" t="s" s="10">
+        <v>9144</v>
+      </c>
+      <c r="B2806" t="s" s="25">
+        <v>9145</v>
+      </c>
+      <c r="C2806" t="s" s="12">
+        <v>5415</v>
+      </c>
+      <c r="D2806" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2806" s="13"/>
+      <c r="F2806" s="28"/>
+    </row>
+    <row r="2807" ht="23.15" customHeight="1">
+      <c r="A2807" t="s" s="10">
+        <v>9146</v>
+      </c>
+      <c r="B2807" t="s" s="25">
+        <v>9147</v>
+      </c>
+      <c r="C2807" t="s" s="12">
+        <v>5418</v>
+      </c>
+      <c r="D2807" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2807" s="13"/>
+      <c r="F2807" s="28"/>
+    </row>
+    <row r="2808" ht="23.15" customHeight="1">
+      <c r="A2808" t="s" s="10">
+        <v>9148</v>
+      </c>
+      <c r="B2808" t="s" s="25">
+        <v>9149</v>
+      </c>
+      <c r="C2808" t="s" s="12">
+        <v>5421</v>
+      </c>
+      <c r="D2808" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2808" s="13"/>
+      <c r="F2808" s="28"/>
+    </row>
+    <row r="2809" ht="23.15" customHeight="1">
+      <c r="A2809" t="s" s="10">
+        <v>9150</v>
+      </c>
+      <c r="B2809" t="s" s="25">
+        <v>9151</v>
+      </c>
+      <c r="C2809" t="s" s="12">
+        <v>5424</v>
+      </c>
+      <c r="D2809" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2809" s="13"/>
+      <c r="F2809" s="28"/>
+    </row>
+    <row r="2810" ht="23.15" customHeight="1">
+      <c r="A2810" t="s" s="10">
+        <v>9152</v>
+      </c>
+      <c r="B2810" t="s" s="25">
+        <v>9153</v>
+      </c>
+      <c r="C2810" t="s" s="12">
+        <v>5427</v>
+      </c>
+      <c r="D2810" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2810" s="13"/>
+      <c r="F2810" s="28"/>
+    </row>
+    <row r="2811" ht="23.15" customHeight="1">
+      <c r="A2811" t="s" s="10">
+        <v>9154</v>
+      </c>
+      <c r="B2811" t="s" s="25">
+        <v>9155</v>
+      </c>
+      <c r="C2811" t="s" s="12">
+        <v>5430</v>
+      </c>
+      <c r="D2811" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2811" s="13"/>
+      <c r="F2811" s="28"/>
+    </row>
+    <row r="2812" ht="23.15" customHeight="1">
+      <c r="A2812" t="s" s="10">
+        <v>9156</v>
+      </c>
+      <c r="B2812" t="s" s="25">
+        <v>9157</v>
+      </c>
+      <c r="C2812" t="s" s="12">
+        <v>5433</v>
+      </c>
+      <c r="D2812" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2812" s="13"/>
+      <c r="F2812" s="28"/>
+    </row>
+    <row r="2813" ht="23.15" customHeight="1">
+      <c r="A2813" t="s" s="10">
+        <v>9158</v>
+      </c>
+      <c r="B2813" t="s" s="25">
+        <v>9159</v>
+      </c>
+      <c r="C2813" t="s" s="12">
+        <v>5436</v>
+      </c>
+      <c r="D2813" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2813" s="13"/>
+      <c r="F2813" s="28"/>
+    </row>
+    <row r="2814" ht="23.15" customHeight="1">
+      <c r="A2814" t="s" s="10">
+        <v>9160</v>
+      </c>
+      <c r="B2814" t="s" s="25">
+        <v>9161</v>
+      </c>
+      <c r="C2814" t="s" s="12">
+        <v>5439</v>
+      </c>
+      <c r="D2814" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2814" s="13"/>
+      <c r="F2814" s="28"/>
+    </row>
+    <row r="2815" ht="23.15" customHeight="1">
+      <c r="A2815" t="s" s="10">
+        <v>9162</v>
+      </c>
+      <c r="B2815" t="s" s="25">
+        <v>9163</v>
+      </c>
+      <c r="C2815" t="s" s="12">
+        <v>5442</v>
+      </c>
+      <c r="D2815" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2815" s="13"/>
+      <c r="F2815" s="28"/>
+    </row>
+    <row r="2816" ht="23.15" customHeight="1">
+      <c r="A2816" t="s" s="10">
+        <v>9164</v>
+      </c>
+      <c r="B2816" t="s" s="25">
+        <v>9165</v>
+      </c>
+      <c r="C2816" t="s" s="12">
+        <v>5445</v>
+      </c>
+      <c r="D2816" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2816" s="13"/>
+      <c r="F2816" s="28"/>
+    </row>
+    <row r="2817" ht="23.15" customHeight="1">
+      <c r="A2817" t="s" s="10">
+        <v>9166</v>
+      </c>
+      <c r="B2817" t="s" s="25">
+        <v>9167</v>
+      </c>
+      <c r="C2817" t="s" s="12">
+        <v>5448</v>
+      </c>
+      <c r="D2817" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2817" s="13"/>
+      <c r="F2817" s="28"/>
+    </row>
+    <row r="2818" ht="23.15" customHeight="1">
+      <c r="A2818" t="s" s="10">
+        <v>9168</v>
+      </c>
+      <c r="B2818" t="s" s="25">
+        <v>9169</v>
+      </c>
+      <c r="C2818" t="s" s="12">
+        <v>5451</v>
+      </c>
+      <c r="D2818" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2818" s="13"/>
+      <c r="F2818" s="28"/>
+    </row>
+    <row r="2819" ht="23.15" customHeight="1">
+      <c r="A2819" t="s" s="10">
+        <v>9170</v>
+      </c>
+      <c r="B2819" t="s" s="25">
+        <v>9171</v>
+      </c>
+      <c r="C2819" t="s" s="12">
+        <v>5454</v>
+      </c>
+      <c r="D2819" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2819" s="13"/>
+      <c r="F2819" s="28"/>
+    </row>
+    <row r="2820" ht="23.15" customHeight="1">
+      <c r="A2820" t="s" s="10">
+        <v>9172</v>
+      </c>
+      <c r="B2820" t="s" s="25">
+        <v>9173</v>
+      </c>
+      <c r="C2820" t="s" s="12">
+        <v>5457</v>
+      </c>
+      <c r="D2820" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2820" s="13"/>
+      <c r="F2820" s="28"/>
+    </row>
+    <row r="2821" ht="23.15" customHeight="1">
+      <c r="A2821" t="s" s="10">
+        <v>9174</v>
+      </c>
+      <c r="B2821" t="s" s="25">
+        <v>9175</v>
+      </c>
+      <c r="C2821" t="s" s="12">
+        <v>5460</v>
+      </c>
+      <c r="D2821" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2821" s="13"/>
+      <c r="F2821" s="28"/>
+    </row>
+    <row r="2822" ht="23.15" customHeight="1">
+      <c r="A2822" t="s" s="10">
+        <v>9176</v>
+      </c>
+      <c r="B2822" t="s" s="25">
+        <v>9177</v>
+      </c>
+      <c r="C2822" t="s" s="12">
+        <v>5463</v>
+      </c>
+      <c r="D2822" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2822" s="13"/>
+      <c r="F2822" s="28"/>
+    </row>
+    <row r="2823" ht="23.15" customHeight="1">
+      <c r="A2823" t="s" s="10">
+        <v>9178</v>
+      </c>
+      <c r="B2823" t="s" s="25">
+        <v>9179</v>
+      </c>
+      <c r="C2823" t="s" s="12">
+        <v>5466</v>
+      </c>
+      <c r="D2823" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2823" s="13"/>
+      <c r="F2823" s="28"/>
+    </row>
+    <row r="2824" ht="23.15" customHeight="1">
+      <c r="A2824" t="s" s="10">
+        <v>9180</v>
+      </c>
+      <c r="B2824" t="s" s="25">
+        <v>9181</v>
+      </c>
+      <c r="C2824" t="s" s="12">
+        <v>5469</v>
+      </c>
+      <c r="D2824" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2824" s="13"/>
+      <c r="F2824" s="28"/>
+    </row>
+    <row r="2825" ht="23.15" customHeight="1">
+      <c r="A2825" t="s" s="10">
+        <v>9182</v>
+      </c>
+      <c r="B2825" t="s" s="25">
+        <v>9183</v>
+      </c>
+      <c r="C2825" t="s" s="12">
+        <v>5472</v>
+      </c>
+      <c r="D2825" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2825" s="13"/>
+      <c r="F2825" s="28"/>
+    </row>
+    <row r="2826" ht="23.15" customHeight="1">
+      <c r="A2826" t="s" s="10">
+        <v>9184</v>
+      </c>
+      <c r="B2826" t="s" s="25">
+        <v>9185</v>
+      </c>
+      <c r="C2826" t="s" s="12">
+        <v>5475</v>
+      </c>
+      <c r="D2826" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2826" s="13"/>
+      <c r="F2826" s="28"/>
+    </row>
+    <row r="2827" ht="23.15" customHeight="1">
+      <c r="A2827" t="s" s="10">
+        <v>9186</v>
+      </c>
+      <c r="B2827" t="s" s="25">
+        <v>9187</v>
+      </c>
+      <c r="C2827" t="s" s="12">
+        <v>5478</v>
+      </c>
+      <c r="D2827" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2827" s="13"/>
+      <c r="F2827" s="28"/>
+    </row>
+    <row r="2828" ht="23.15" customHeight="1">
+      <c r="A2828" t="s" s="10">
+        <v>9188</v>
+      </c>
+      <c r="B2828" t="s" s="25">
+        <v>9189</v>
+      </c>
+      <c r="C2828" t="s" s="12">
+        <v>5481</v>
+      </c>
+      <c r="D2828" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2828" s="13"/>
+      <c r="F2828" s="28"/>
+    </row>
+    <row r="2829" ht="23.15" customHeight="1">
+      <c r="A2829" t="s" s="10">
+        <v>9190</v>
+      </c>
+      <c r="B2829" t="s" s="25">
+        <v>9191</v>
+      </c>
+      <c r="C2829" t="s" s="12">
+        <v>5484</v>
+      </c>
+      <c r="D2829" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2829" s="13"/>
+      <c r="F2829" s="28"/>
+    </row>
+    <row r="2830" ht="23.15" customHeight="1">
+      <c r="A2830" t="s" s="10">
+        <v>9192</v>
+      </c>
+      <c r="B2830" t="s" s="25">
+        <v>9193</v>
+      </c>
+      <c r="C2830" t="s" s="12">
+        <v>5487</v>
+      </c>
+      <c r="D2830" t="s" s="12">
+        <v>8947</v>
+      </c>
+      <c r="E2830" s="13"/>
+      <c r="F2830" s="28"/>
+    </row>
+    <row r="2831" ht="23.15" customHeight="1">
+      <c r="A2831" t="s" s="10">
+        <v>9194</v>
+      </c>
+      <c r="B2831" t="s" s="25">
+        <v>9195</v>
+      </c>
+      <c r="C2831" t="s" s="12">
+        <v>9196</v>
+      </c>
+      <c r="D2831" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2831" s="13"/>
+      <c r="F2831" s="28"/>
+    </row>
+    <row r="2832" ht="23.15" customHeight="1">
+      <c r="A2832" t="s" s="10">
+        <v>9197</v>
+      </c>
+      <c r="B2832" t="s" s="25">
+        <v>9198</v>
+      </c>
+      <c r="C2832" t="s" s="12">
+        <v>9199</v>
+      </c>
+      <c r="D2832" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2832" s="13"/>
+      <c r="F2832" s="28"/>
+    </row>
+    <row r="2833" ht="23.15" customHeight="1">
+      <c r="A2833" t="s" s="10">
+        <v>9200</v>
+      </c>
+      <c r="B2833" t="s" s="25">
+        <v>9201</v>
+      </c>
+      <c r="C2833" t="s" s="12">
+        <v>9202</v>
+      </c>
+      <c r="D2833" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2833" s="13"/>
+      <c r="F2833" s="28"/>
+    </row>
+    <row r="2834" ht="23.15" customHeight="1">
+      <c r="A2834" t="s" s="10">
+        <v>9203</v>
+      </c>
+      <c r="B2834" t="s" s="25">
+        <v>9204</v>
+      </c>
+      <c r="C2834" t="s" s="12">
+        <v>9205</v>
+      </c>
+      <c r="D2834" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2834" s="13"/>
+      <c r="F2834" s="28"/>
+    </row>
+    <row r="2835" ht="23.15" customHeight="1">
+      <c r="A2835" t="s" s="10">
+        <v>9206</v>
+      </c>
+      <c r="B2835" t="s" s="25">
+        <v>9207</v>
+      </c>
+      <c r="C2835" t="s" s="12">
+        <v>9208</v>
+      </c>
+      <c r="D2835" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2835" s="13"/>
+      <c r="F2835" s="28"/>
+    </row>
+    <row r="2836" ht="23.15" customHeight="1">
+      <c r="A2836" t="s" s="10">
+        <v>9209</v>
+      </c>
+      <c r="B2836" t="s" s="25">
+        <v>9210</v>
+      </c>
+      <c r="C2836" t="s" s="12">
+        <v>9211</v>
+      </c>
+      <c r="D2836" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2836" s="13"/>
+      <c r="F2836" s="28"/>
+    </row>
+    <row r="2837" ht="23.15" customHeight="1">
+      <c r="A2837" t="s" s="10">
+        <v>9212</v>
+      </c>
+      <c r="B2837" t="s" s="25">
+        <v>9213</v>
+      </c>
+      <c r="C2837" t="s" s="12">
+        <v>9214</v>
+      </c>
+      <c r="D2837" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2837" s="13"/>
+      <c r="F2837" s="28"/>
+    </row>
+    <row r="2838" ht="23.15" customHeight="1">
+      <c r="A2838" t="s" s="10">
+        <v>9215</v>
+      </c>
+      <c r="B2838" t="s" s="25">
+        <v>9216</v>
+      </c>
+      <c r="C2838" t="s" s="12">
+        <v>9217</v>
+      </c>
+      <c r="D2838" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2838" s="13"/>
+      <c r="F2838" s="28"/>
+    </row>
+    <row r="2839" ht="23.15" customHeight="1">
+      <c r="A2839" t="s" s="10">
+        <v>9218</v>
+      </c>
+      <c r="B2839" t="s" s="25">
+        <v>9219</v>
+      </c>
+      <c r="C2839" t="s" s="12">
+        <v>9220</v>
+      </c>
+      <c r="D2839" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2839" s="13"/>
+      <c r="F2839" s="28"/>
+    </row>
+    <row r="2840" ht="23.15" customHeight="1">
+      <c r="A2840" t="s" s="10">
+        <v>9221</v>
+      </c>
+      <c r="B2840" t="s" s="25">
+        <v>9222</v>
+      </c>
+      <c r="C2840" t="s" s="12">
+        <v>9223</v>
+      </c>
+      <c r="D2840" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2840" s="13"/>
+      <c r="F2840" s="28"/>
+    </row>
+    <row r="2841" ht="23.15" customHeight="1">
+      <c r="A2841" t="s" s="10">
+        <v>9224</v>
+      </c>
+      <c r="B2841" t="s" s="25">
+        <v>9225</v>
+      </c>
+      <c r="C2841" t="s" s="12">
+        <v>9226</v>
+      </c>
+      <c r="D2841" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2841" s="13"/>
+      <c r="F2841" s="28"/>
+    </row>
+    <row r="2842" ht="23.15" customHeight="1">
+      <c r="A2842" t="s" s="10">
+        <v>9227</v>
+      </c>
+      <c r="B2842" t="s" s="25">
+        <v>9228</v>
+      </c>
+      <c r="C2842" t="s" s="12">
+        <v>9229</v>
+      </c>
+      <c r="D2842" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2842" s="13"/>
+      <c r="F2842" s="28"/>
+    </row>
+    <row r="2843" ht="23.15" customHeight="1">
+      <c r="A2843" t="s" s="10">
+        <v>9230</v>
+      </c>
+      <c r="B2843" t="s" s="25">
+        <v>9231</v>
+      </c>
+      <c r="C2843" t="s" s="12">
+        <v>9232</v>
+      </c>
+      <c r="D2843" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2843" s="13"/>
+      <c r="F2843" s="28"/>
+    </row>
+    <row r="2844" ht="23.15" customHeight="1">
+      <c r="A2844" t="s" s="10">
+        <v>9233</v>
+      </c>
+      <c r="B2844" t="s" s="25">
+        <v>9234</v>
+      </c>
+      <c r="C2844" t="s" s="12">
+        <v>9235</v>
+      </c>
+      <c r="D2844" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2844" s="13"/>
+      <c r="F2844" s="28"/>
+    </row>
+    <row r="2845" ht="23.15" customHeight="1">
+      <c r="A2845" t="s" s="10">
+        <v>9236</v>
+      </c>
+      <c r="B2845" t="s" s="25">
+        <v>9237</v>
+      </c>
+      <c r="C2845" t="s" s="12">
+        <v>9238</v>
+      </c>
+      <c r="D2845" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2845" s="13"/>
+      <c r="F2845" s="28"/>
+    </row>
+    <row r="2846" ht="23.15" customHeight="1">
+      <c r="A2846" t="s" s="10">
+        <v>9239</v>
+      </c>
+      <c r="B2846" t="s" s="25">
+        <v>5759</v>
+      </c>
+      <c r="C2846" t="s" s="12">
+        <v>9240</v>
+      </c>
+      <c r="D2846" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2846" s="13"/>
+      <c r="F2846" s="28"/>
+    </row>
+    <row r="2847" ht="23.15" customHeight="1">
+      <c r="A2847" t="s" s="10">
+        <v>9241</v>
+      </c>
+      <c r="B2847" t="s" s="25">
+        <v>5750</v>
+      </c>
+      <c r="C2847" t="s" s="12">
+        <v>9242</v>
+      </c>
+      <c r="D2847" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2847" s="13"/>
+      <c r="F2847" s="28"/>
+    </row>
+    <row r="2848" ht="23.15" customHeight="1">
+      <c r="A2848" t="s" s="10">
+        <v>9243</v>
+      </c>
+      <c r="B2848" t="s" s="25">
+        <v>9244</v>
+      </c>
+      <c r="C2848" t="s" s="12">
+        <v>9245</v>
+      </c>
+      <c r="D2848" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2848" s="13"/>
+      <c r="F2848" s="28"/>
+    </row>
+    <row r="2849" ht="23.15" customHeight="1">
+      <c r="A2849" t="s" s="10">
+        <v>9246</v>
+      </c>
+      <c r="B2849" t="s" s="25">
+        <v>9247</v>
+      </c>
+      <c r="C2849" t="s" s="12">
+        <v>9248</v>
+      </c>
+      <c r="D2849" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2849" s="13"/>
+      <c r="F2849" s="28"/>
+    </row>
+    <row r="2850" ht="23.15" customHeight="1">
+      <c r="A2850" t="s" s="10">
+        <v>9249</v>
+      </c>
+      <c r="B2850" t="s" s="25">
+        <v>9250</v>
+      </c>
+      <c r="C2850" t="s" s="12">
+        <v>9251</v>
+      </c>
+      <c r="D2850" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2850" s="13"/>
+      <c r="F2850" s="28"/>
+    </row>
+    <row r="2851" ht="23.15" customHeight="1">
+      <c r="A2851" t="s" s="10">
+        <v>9252</v>
+      </c>
+      <c r="B2851" t="s" s="25">
+        <v>9253</v>
+      </c>
+      <c r="C2851" t="s" s="12">
+        <v>9254</v>
+      </c>
+      <c r="D2851" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2851" s="13"/>
+      <c r="F2851" s="28"/>
+    </row>
+    <row r="2852" ht="23.15" customHeight="1">
+      <c r="A2852" t="s" s="10">
+        <v>9255</v>
+      </c>
+      <c r="B2852" t="s" s="25">
+        <v>9256</v>
+      </c>
+      <c r="C2852" t="s" s="12">
+        <v>9257</v>
+      </c>
+      <c r="D2852" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2852" s="13"/>
+      <c r="F2852" s="28"/>
+    </row>
+    <row r="2853" ht="23.15" customHeight="1">
+      <c r="A2853" t="s" s="10">
+        <v>9258</v>
+      </c>
+      <c r="B2853" t="s" s="25">
+        <v>9259</v>
+      </c>
+      <c r="C2853" t="s" s="12">
+        <v>9260</v>
+      </c>
+      <c r="D2853" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E2853" s="13"/>
+      <c r="F2853" s="28"/>
+    </row>
+    <row r="2854" ht="50.6" customHeight="1">
+      <c r="A2854" t="s" s="10">
+        <v>9261</v>
+      </c>
+      <c r="B2854" s="11"/>
+      <c r="C2854" t="s" s="19">
+        <v>7291</v>
+      </c>
+      <c r="D2854" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2854" t="s" s="19">
+        <v>3173</v>
+      </c>
+      <c r="F2854" t="s" s="12">
+        <v>7290</v>
+      </c>
+    </row>
+    <row r="2855" ht="50.6" customHeight="1">
+      <c r="A2855" t="s" s="10">
+        <v>9263</v>
+      </c>
+      <c r="B2855" s="11"/>
+      <c r="C2855" t="s" s="19">
+        <v>7295</v>
+      </c>
+      <c r="D2855" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2855" t="s" s="19">
+        <v>3165</v>
+      </c>
+      <c r="F2855" t="s" s="12">
+        <v>7294</v>
+      </c>
+    </row>
+    <row r="2856" ht="50.6" customHeight="1">
+      <c r="A2856" t="s" s="10">
+        <v>9264</v>
+      </c>
+      <c r="B2856" s="35"/>
+      <c r="C2856" t="s" s="19">
+        <v>7298</v>
+      </c>
+      <c r="D2856" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2856" t="s" s="19">
+        <v>7299</v>
+      </c>
+      <c r="F2856" t="s" s="12">
+        <v>7297</v>
+      </c>
+    </row>
+    <row r="2857" ht="50.6" customHeight="1">
+      <c r="A2857" t="s" s="10">
+        <v>9265</v>
+      </c>
+      <c r="B2857" s="35"/>
+      <c r="C2857" t="s" s="19">
+        <v>7302</v>
+      </c>
+      <c r="D2857" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2857" t="s" s="19">
+        <v>7303</v>
+      </c>
+      <c r="F2857" t="s" s="12">
+        <v>7301</v>
+      </c>
+    </row>
+    <row r="2858" ht="50.6" customHeight="1">
+      <c r="A2858" t="s" s="10">
+        <v>9266</v>
+      </c>
+      <c r="B2858" s="11"/>
+      <c r="C2858" t="s" s="19">
+        <v>7306</v>
+      </c>
+      <c r="D2858" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2858" t="s" s="19">
+        <v>3181</v>
+      </c>
+      <c r="F2858" t="s" s="12">
+        <v>7305</v>
+      </c>
+    </row>
+    <row r="2859" ht="50.6" customHeight="1">
+      <c r="A2859" t="s" s="10">
+        <v>9267</v>
+      </c>
+      <c r="B2859" s="11"/>
+      <c r="C2859" t="s" s="19">
+        <v>7309</v>
+      </c>
+      <c r="D2859" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2859" t="s" s="19">
+        <v>126</v>
+      </c>
+      <c r="F2859" t="s" s="12">
+        <v>7308</v>
+      </c>
+    </row>
+    <row r="2860" ht="50.6" customHeight="1">
+      <c r="A2860" t="s" s="10">
+        <v>9268</v>
+      </c>
+      <c r="B2860" s="35"/>
+      <c r="C2860" t="s" s="19">
+        <v>7312</v>
+      </c>
+      <c r="D2860" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2860" t="s" s="19">
+        <v>71</v>
+      </c>
+      <c r="F2860" t="s" s="12">
+        <v>7311</v>
+      </c>
+    </row>
+    <row r="2861" ht="50.6" customHeight="1">
+      <c r="A2861" t="s" s="10">
+        <v>9269</v>
+      </c>
+      <c r="B2861" s="35"/>
+      <c r="C2861" t="s" s="19">
+        <v>7315</v>
+      </c>
+      <c r="D2861" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2861" t="s" s="19">
+        <v>7316</v>
+      </c>
+      <c r="F2861" t="s" s="12">
+        <v>7314</v>
+      </c>
+    </row>
+    <row r="2862" ht="55.6" customHeight="1">
+      <c r="A2862" t="s" s="10">
+        <v>9270</v>
+      </c>
+      <c r="B2862" s="11"/>
+      <c r="C2862" t="s" s="19">
+        <v>7319</v>
+      </c>
+      <c r="D2862" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2862" t="s" s="19">
+        <v>3185</v>
+      </c>
+      <c r="F2862" t="s" s="12">
+        <v>7318</v>
+      </c>
+    </row>
+    <row r="2863" ht="55.6" customHeight="1">
+      <c r="A2863" t="s" s="10">
+        <v>9271</v>
+      </c>
+      <c r="B2863" s="11"/>
+      <c r="C2863" t="s" s="19">
+        <v>7322</v>
+      </c>
+      <c r="D2863" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2863" t="s" s="19">
+        <v>3624</v>
+      </c>
+      <c r="F2863" t="s" s="12">
+        <v>7321</v>
+      </c>
+    </row>
+    <row r="2864" ht="55.6" customHeight="1">
+      <c r="A2864" t="s" s="10">
+        <v>9272</v>
+      </c>
+      <c r="B2864" s="35"/>
+      <c r="C2864" t="s" s="19">
+        <v>7325</v>
+      </c>
+      <c r="D2864" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2864" t="s" s="19">
+        <v>6537</v>
+      </c>
+      <c r="F2864" t="s" s="12">
+        <v>7324</v>
+      </c>
+    </row>
+    <row r="2865" ht="55.6" customHeight="1">
+      <c r="A2865" t="s" s="10">
+        <v>9273</v>
+      </c>
+      <c r="B2865" s="35"/>
+      <c r="C2865" t="s" s="19">
+        <v>7328</v>
+      </c>
+      <c r="D2865" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2865" t="s" s="19">
+        <v>7329</v>
+      </c>
+      <c r="F2865" t="s" s="12">
+        <v>7327</v>
+      </c>
+    </row>
+    <row r="2866" ht="55.6" customHeight="1">
+      <c r="A2866" t="s" s="10">
+        <v>9274</v>
+      </c>
+      <c r="B2866" s="11"/>
+      <c r="C2866" t="s" s="19">
+        <v>7332</v>
+      </c>
+      <c r="D2866" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2866" t="s" s="19">
+        <v>3189</v>
+      </c>
+      <c r="F2866" t="s" s="12">
+        <v>7331</v>
+      </c>
+    </row>
+    <row r="2867" ht="55.6" customHeight="1">
+      <c r="A2867" t="s" s="10">
+        <v>9275</v>
+      </c>
+      <c r="B2867" s="35"/>
+      <c r="C2867" t="s" s="12">
+        <v>7335</v>
+      </c>
+      <c r="D2867" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2867" t="s" s="12">
+        <v>3235</v>
+      </c>
+      <c r="F2867" t="s" s="12">
+        <v>7334</v>
+      </c>
+    </row>
+    <row r="2868" ht="55.6" customHeight="1">
+      <c r="A2868" t="s" s="10">
+        <v>9276</v>
+      </c>
+      <c r="B2868" s="35"/>
+      <c r="C2868" t="s" s="12">
+        <v>7338</v>
+      </c>
+      <c r="D2868" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2868" t="s" s="12">
+        <v>285</v>
+      </c>
+      <c r="F2868" t="s" s="12">
+        <v>7337</v>
+      </c>
+    </row>
+    <row r="2869" ht="55.6" customHeight="1">
+      <c r="A2869" t="s" s="10">
+        <v>9277</v>
+      </c>
+      <c r="B2869" s="11"/>
+      <c r="C2869" t="s" s="12">
+        <v>7341</v>
+      </c>
+      <c r="D2869" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2869" t="s" s="12">
+        <v>3242</v>
+      </c>
+      <c r="F2869" t="s" s="12">
+        <v>7340</v>
+      </c>
+    </row>
+    <row r="2870" ht="55.6" customHeight="1">
+      <c r="A2870" t="s" s="10">
+        <v>9278</v>
+      </c>
+      <c r="B2870" s="11"/>
+      <c r="C2870" t="s" s="12">
+        <v>7344</v>
+      </c>
+      <c r="D2870" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2870" t="s" s="12">
+        <v>3193</v>
+      </c>
+      <c r="F2870" t="s" s="12">
+        <v>7343</v>
+      </c>
+    </row>
+    <row r="2871" ht="55.6" customHeight="1">
+      <c r="A2871" t="s" s="10">
+        <v>9279</v>
+      </c>
+      <c r="B2871" s="11"/>
+      <c r="C2871" t="s" s="12">
+        <v>7347</v>
+      </c>
+      <c r="D2871" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2871" t="s" s="12">
+        <v>7348</v>
+      </c>
+      <c r="F2871" t="s" s="12">
+        <v>7346</v>
+      </c>
+    </row>
+    <row r="2872" ht="55.6" customHeight="1">
+      <c r="A2872" t="s" s="10">
+        <v>9280</v>
+      </c>
+      <c r="B2872" s="35"/>
+      <c r="C2872" t="s" s="12">
+        <v>7351</v>
+      </c>
+      <c r="D2872" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2872" t="s" s="12">
+        <v>7352</v>
+      </c>
+      <c r="F2872" t="s" s="12">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="2873" ht="55.6" customHeight="1">
+      <c r="A2873" t="s" s="10">
+        <v>9281</v>
+      </c>
+      <c r="B2873" s="35"/>
+      <c r="C2873" t="s" s="12">
+        <v>7355</v>
+      </c>
+      <c r="D2873" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2873" t="s" s="12">
+        <v>7356</v>
+      </c>
+      <c r="F2873" t="s" s="12">
+        <v>7354</v>
+      </c>
+    </row>
+    <row r="2874" ht="55.6" customHeight="1">
+      <c r="A2874" t="s" s="10">
+        <v>9282</v>
+      </c>
+      <c r="B2874" s="11"/>
+      <c r="C2874" t="s" s="12">
+        <v>7359</v>
+      </c>
+      <c r="D2874" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2874" t="s" s="12">
+        <v>3197</v>
+      </c>
+      <c r="F2874" t="s" s="12">
+        <v>7358</v>
+      </c>
+    </row>
+    <row r="2875" ht="55.6" customHeight="1">
+      <c r="A2875" t="s" s="10">
+        <v>9283</v>
+      </c>
+      <c r="B2875" s="11"/>
+      <c r="C2875" t="s" s="12">
+        <v>7362</v>
+      </c>
+      <c r="D2875" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2875" t="s" s="12">
+        <v>3246</v>
+      </c>
+      <c r="F2875" t="s" s="12">
+        <v>7361</v>
+      </c>
+    </row>
+    <row r="2876" ht="55.6" customHeight="1">
+      <c r="A2876" t="s" s="10">
+        <v>9284</v>
+      </c>
+      <c r="B2876" s="11"/>
+      <c r="C2876" t="s" s="12">
+        <v>7365</v>
+      </c>
+      <c r="D2876" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2876" t="s" s="12">
+        <v>3250</v>
+      </c>
+      <c r="F2876" t="s" s="12">
+        <v>7364</v>
+      </c>
+    </row>
+    <row r="2877" ht="55.6" customHeight="1">
+      <c r="A2877" t="s" s="10">
+        <v>9285</v>
+      </c>
+      <c r="B2877" s="35"/>
+      <c r="C2877" t="s" s="12">
+        <v>7368</v>
+      </c>
+      <c r="D2877" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2877" t="s" s="12">
+        <v>7369</v>
+      </c>
+      <c r="F2877" t="s" s="12">
+        <v>7367</v>
+      </c>
+    </row>
+    <row r="2878" ht="55.6" customHeight="1">
+      <c r="A2878" t="s" s="10">
+        <v>9286</v>
+      </c>
+      <c r="B2878" s="11"/>
+      <c r="C2878" t="s" s="12">
+        <v>7372</v>
+      </c>
+      <c r="D2878" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2878" t="s" s="12">
+        <v>3201</v>
+      </c>
+      <c r="F2878" t="s" s="12">
+        <v>7371</v>
+      </c>
+    </row>
+    <row r="2879" ht="55.6" customHeight="1">
+      <c r="A2879" t="s" s="10">
+        <v>9287</v>
+      </c>
+      <c r="B2879" s="11"/>
+      <c r="C2879" t="s" s="12">
+        <v>7375</v>
+      </c>
+      <c r="D2879" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2879" t="s" s="12">
+        <v>3161</v>
+      </c>
+      <c r="F2879" t="s" s="12">
+        <v>7374</v>
+      </c>
+    </row>
+    <row r="2880" ht="55.6" customHeight="1">
+      <c r="A2880" t="s" s="10">
+        <v>9288</v>
+      </c>
+      <c r="B2880" s="11"/>
+      <c r="C2880" t="s" s="12">
+        <v>7378</v>
+      </c>
+      <c r="D2880" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2880" t="s" s="12">
+        <v>3254</v>
+      </c>
+      <c r="F2880" t="s" s="12">
+        <v>7377</v>
+      </c>
+    </row>
+    <row r="2881" ht="55.6" customHeight="1">
+      <c r="A2881" t="s" s="10">
+        <v>9289</v>
+      </c>
+      <c r="B2881" s="11"/>
+      <c r="C2881" t="s" s="12">
+        <v>7381</v>
+      </c>
+      <c r="D2881" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2881" t="s" s="12">
+        <v>7382</v>
+      </c>
+      <c r="F2881" t="s" s="12">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="2882" ht="55.6" customHeight="1">
+      <c r="A2882" t="s" s="10">
+        <v>9290</v>
+      </c>
+      <c r="B2882" s="11"/>
+      <c r="C2882" t="s" s="12">
+        <v>7385</v>
+      </c>
+      <c r="D2882" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2882" t="s" s="12">
+        <v>3205</v>
+      </c>
+      <c r="F2882" t="s" s="12">
+        <v>7384</v>
+      </c>
+    </row>
+    <row r="2883" ht="55.6" customHeight="1">
+      <c r="A2883" t="s" s="10">
+        <v>9291</v>
+      </c>
+      <c r="B2883" s="11"/>
+      <c r="C2883" t="s" s="12">
+        <v>7388</v>
+      </c>
+      <c r="D2883" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2883" t="s" s="12">
+        <v>3258</v>
+      </c>
+      <c r="F2883" t="s" s="12">
+        <v>7387</v>
+      </c>
+    </row>
+    <row r="2884" ht="55.6" customHeight="1">
+      <c r="A2884" t="s" s="10">
+        <v>9292</v>
+      </c>
+      <c r="B2884" s="11"/>
+      <c r="C2884" t="s" s="12">
+        <v>7391</v>
+      </c>
+      <c r="D2884" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2884" t="s" s="12">
+        <v>216</v>
+      </c>
+      <c r="F2884" t="s" s="12">
+        <v>7390</v>
+      </c>
+    </row>
+    <row r="2885" ht="55.6" customHeight="1">
+      <c r="A2885" t="s" s="10">
+        <v>9293</v>
+      </c>
+      <c r="B2885" s="11"/>
+      <c r="C2885" t="s" s="12">
+        <v>7394</v>
+      </c>
+      <c r="D2885" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2885" t="s" s="12">
+        <v>3262</v>
+      </c>
+      <c r="F2885" t="s" s="12">
+        <v>7393</v>
+      </c>
+    </row>
+    <row r="2886" ht="55.6" customHeight="1">
+      <c r="A2886" t="s" s="10">
+        <v>9294</v>
+      </c>
+      <c r="B2886" s="11"/>
+      <c r="C2886" t="s" s="12">
+        <v>7397</v>
+      </c>
+      <c r="D2886" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2886" t="s" s="12">
+        <v>3209</v>
+      </c>
+      <c r="F2886" t="s" s="12">
+        <v>7396</v>
+      </c>
+    </row>
+    <row r="2887" ht="55.6" customHeight="1">
+      <c r="A2887" t="s" s="10">
+        <v>9295</v>
+      </c>
+      <c r="B2887" s="11"/>
+      <c r="C2887" t="s" s="12">
+        <v>7400</v>
+      </c>
+      <c r="D2887" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2887" t="s" s="12">
+        <v>3269</v>
+      </c>
+      <c r="F2887" t="s" s="12">
+        <v>7399</v>
+      </c>
+    </row>
+    <row r="2888" ht="55.6" customHeight="1">
+      <c r="A2888" t="s" s="10">
+        <v>9296</v>
+      </c>
+      <c r="B2888" s="11"/>
+      <c r="C2888" t="s" s="12">
+        <v>7403</v>
+      </c>
+      <c r="D2888" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2888" t="s" s="12">
+        <v>3273</v>
+      </c>
+      <c r="F2888" t="s" s="12">
+        <v>7402</v>
+      </c>
+    </row>
+    <row r="2889" ht="55.6" customHeight="1">
+      <c r="A2889" t="s" s="10">
+        <v>9297</v>
+      </c>
+      <c r="B2889" s="11"/>
+      <c r="C2889" t="s" s="12">
+        <v>7406</v>
+      </c>
+      <c r="D2889" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2889" t="s" s="12">
+        <v>7407</v>
+      </c>
+      <c r="F2889" t="s" s="12">
+        <v>7405</v>
+      </c>
+    </row>
+    <row r="2890" ht="55.6" customHeight="1">
+      <c r="A2890" t="s" s="10">
+        <v>9298</v>
+      </c>
+      <c r="B2890" s="11"/>
+      <c r="C2890" t="s" s="12">
+        <v>7410</v>
+      </c>
+      <c r="D2890" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2890" t="s" s="12">
+        <v>3213</v>
+      </c>
+      <c r="F2890" t="s" s="12">
+        <v>7409</v>
+      </c>
+    </row>
+    <row r="2891" ht="55.6" customHeight="1">
+      <c r="A2891" t="s" s="10">
+        <v>9299</v>
+      </c>
+      <c r="B2891" s="11"/>
+      <c r="C2891" t="s" s="12">
+        <v>7413</v>
+      </c>
+      <c r="D2891" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2891" t="s" s="12">
+        <v>3281</v>
+      </c>
+      <c r="F2891" t="s" s="12">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="2892" ht="55.6" customHeight="1">
+      <c r="A2892" t="s" s="10">
+        <v>9300</v>
+      </c>
+      <c r="B2892" s="11"/>
+      <c r="C2892" t="s" s="12">
+        <v>7416</v>
+      </c>
+      <c r="D2892" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2892" t="s" s="12">
+        <v>3277</v>
+      </c>
+      <c r="F2892" t="s" s="12">
+        <v>7415</v>
+      </c>
+    </row>
+    <row r="2893" ht="55.6" customHeight="1">
+      <c r="A2893" t="s" s="10">
+        <v>9301</v>
+      </c>
+      <c r="B2893" s="35"/>
+      <c r="C2893" t="s" s="12">
+        <v>7419</v>
+      </c>
+      <c r="D2893" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2893" t="s" s="12">
+        <v>3289</v>
+      </c>
+      <c r="F2893" t="s" s="12">
+        <v>7418</v>
+      </c>
+    </row>
+    <row r="2894" ht="55.6" customHeight="1">
+      <c r="A2894" t="s" s="10">
+        <v>9302</v>
+      </c>
+      <c r="B2894" s="11"/>
+      <c r="C2894" t="s" s="12">
+        <v>7422</v>
+      </c>
+      <c r="D2894" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2894" t="s" s="12">
+        <v>3217</v>
+      </c>
+      <c r="F2894" t="s" s="12">
+        <v>7421</v>
+      </c>
+    </row>
+    <row r="2895" ht="55.6" customHeight="1">
+      <c r="A2895" t="s" s="10">
+        <v>9303</v>
+      </c>
+      <c r="B2895" s="11"/>
+      <c r="C2895" t="s" s="12">
+        <v>7425</v>
+      </c>
+      <c r="D2895" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2895" t="s" s="12">
+        <v>3293</v>
+      </c>
+      <c r="F2895" t="s" s="12">
+        <v>7424</v>
+      </c>
+    </row>
+    <row r="2896" ht="55.6" customHeight="1">
+      <c r="A2896" t="s" s="10">
+        <v>9304</v>
+      </c>
+      <c r="B2896" s="35"/>
+      <c r="C2896" t="s" s="12">
+        <v>7428</v>
+      </c>
+      <c r="D2896" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2896" t="s" s="12">
+        <v>3297</v>
+      </c>
+      <c r="F2896" t="s" s="12">
+        <v>7427</v>
+      </c>
+    </row>
+    <row r="2897" ht="55.6" customHeight="1">
+      <c r="A2897" t="s" s="10">
+        <v>9305</v>
+      </c>
+      <c r="B2897" s="35"/>
+      <c r="C2897" t="s" s="12">
+        <v>7431</v>
+      </c>
+      <c r="D2897" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2897" t="s" s="12">
+        <v>7432</v>
+      </c>
+      <c r="F2897" t="s" s="12">
+        <v>7430</v>
+      </c>
+    </row>
+    <row r="2898" ht="55.6" customHeight="1">
+      <c r="A2898" t="s" s="10">
+        <v>9306</v>
+      </c>
+      <c r="B2898" s="35"/>
+      <c r="C2898" t="s" s="12">
+        <v>7435</v>
+      </c>
+      <c r="D2898" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2898" t="s" s="12">
+        <v>3301</v>
+      </c>
+      <c r="F2898" t="s" s="12">
+        <v>7434</v>
+      </c>
+    </row>
+    <row r="2899" ht="55.6" customHeight="1">
+      <c r="A2899" t="s" s="10">
+        <v>9307</v>
+      </c>
+      <c r="B2899" s="11"/>
+      <c r="C2899" t="s" s="12">
+        <v>7438</v>
+      </c>
+      <c r="D2899" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2899" t="s" s="12">
+        <v>3305</v>
+      </c>
+      <c r="F2899" t="s" s="12">
+        <v>7437</v>
+      </c>
+    </row>
+    <row r="2900" ht="72.35" customHeight="1">
+      <c r="A2900" t="s" s="10">
+        <v>9308</v>
+      </c>
+      <c r="B2900" s="35"/>
+      <c r="C2900" t="s" s="12">
+        <v>7441</v>
+      </c>
+      <c r="D2900" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2900" t="s" s="12">
+        <v>249</v>
+      </c>
+      <c r="F2900" t="s" s="12">
+        <v>7440</v>
+      </c>
+    </row>
+    <row r="2901" ht="55.6" customHeight="1">
+      <c r="A2901" t="s" s="10">
+        <v>9309</v>
+      </c>
+      <c r="B2901" s="35"/>
+      <c r="C2901" t="s" s="12">
+        <v>7444</v>
+      </c>
+      <c r="D2901" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2901" t="s" s="12">
+        <v>3285</v>
+      </c>
+      <c r="F2901" t="s" s="12">
+        <v>7443</v>
+      </c>
+    </row>
+    <row r="2902" ht="55.6" customHeight="1">
+      <c r="A2902" t="s" s="10">
+        <v>9310</v>
+      </c>
+      <c r="B2902" s="35"/>
+      <c r="C2902" t="s" s="12">
+        <v>7447</v>
+      </c>
+      <c r="D2902" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2902" t="s" s="12">
+        <v>7448</v>
+      </c>
+      <c r="F2902" t="s" s="12">
+        <v>7446</v>
+      </c>
+    </row>
+    <row r="2903" ht="55.6" customHeight="1">
+      <c r="A2903" t="s" s="10">
+        <v>9311</v>
+      </c>
+      <c r="B2903" s="11"/>
+      <c r="C2903" t="s" s="12">
+        <v>7451</v>
+      </c>
+      <c r="D2903" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2903" t="s" s="12">
+        <v>7452</v>
+      </c>
+      <c r="F2903" t="s" s="12">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="2904" ht="55.6" customHeight="1">
+      <c r="A2904" t="s" s="10">
+        <v>9312</v>
+      </c>
+      <c r="B2904" s="11"/>
+      <c r="C2904" t="s" s="12">
+        <v>7455</v>
+      </c>
+      <c r="D2904" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2904" t="s" s="12">
+        <v>7456</v>
+      </c>
+      <c r="F2904" t="s" s="12">
+        <v>7454</v>
+      </c>
+    </row>
+    <row r="2905" ht="55.6" customHeight="1">
+      <c r="A2905" t="s" s="10">
+        <v>9313</v>
+      </c>
+      <c r="B2905" s="35"/>
+      <c r="C2905" t="s" s="12">
+        <v>7459</v>
+      </c>
+      <c r="D2905" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2905" t="s" s="12">
+        <v>7460</v>
+      </c>
+      <c r="F2905" t="s" s="12">
+        <v>7458</v>
+      </c>
+    </row>
+    <row r="2906" ht="55.6" customHeight="1">
+      <c r="A2906" t="s" s="10">
+        <v>9314</v>
+      </c>
+      <c r="B2906" s="11"/>
+      <c r="C2906" t="s" s="12">
+        <v>7463</v>
+      </c>
+      <c r="D2906" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2906" t="s" s="12">
+        <v>3169</v>
+      </c>
+      <c r="F2906" t="s" s="12">
+        <v>7462</v>
+      </c>
+    </row>
+    <row r="2907" ht="55.6" customHeight="1">
+      <c r="A2907" t="s" s="10">
+        <v>9315</v>
+      </c>
+      <c r="B2907" s="11"/>
+      <c r="C2907" t="s" s="12">
+        <v>7466</v>
+      </c>
+      <c r="D2907" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2907" t="s" s="12">
+        <v>3342</v>
+      </c>
+      <c r="F2907" t="s" s="12">
+        <v>7465</v>
+      </c>
+    </row>
+    <row r="2908" ht="55.6" customHeight="1">
+      <c r="A2908" t="s" s="10">
+        <v>9316</v>
+      </c>
+      <c r="B2908" s="35"/>
+      <c r="C2908" t="s" s="12">
+        <v>7469</v>
+      </c>
+      <c r="D2908" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2908" t="s" s="12">
+        <v>7470</v>
+      </c>
+      <c r="F2908" t="s" s="12">
+        <v>7468</v>
+      </c>
+    </row>
+    <row r="2909" ht="55.6" customHeight="1">
+      <c r="A2909" t="s" s="10">
+        <v>9317</v>
+      </c>
+      <c r="B2909" s="35"/>
+      <c r="C2909" t="s" s="12">
+        <v>7473</v>
+      </c>
+      <c r="D2909" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2909" t="s" s="12">
+        <v>7474</v>
+      </c>
+      <c r="F2909" t="s" s="12">
+        <v>7472</v>
+      </c>
+    </row>
+    <row r="2910" ht="55.6" customHeight="1">
+      <c r="A2910" t="s" s="10">
+        <v>9318</v>
+      </c>
+      <c r="B2910" s="11"/>
+      <c r="C2910" t="s" s="12">
+        <v>7476</v>
+      </c>
+      <c r="D2910" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2910" t="s" s="12">
+        <v>3242</v>
+      </c>
+      <c r="F2910" t="s" s="12">
+        <v>7340</v>
+      </c>
+    </row>
+    <row r="2911" ht="55.6" customHeight="1">
+      <c r="A2911" t="s" s="10">
+        <v>9319</v>
+      </c>
+      <c r="B2911" s="11"/>
+      <c r="C2911" t="s" s="12">
+        <v>7478</v>
+      </c>
+      <c r="D2911" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2911" t="s" s="12">
+        <v>7456</v>
+      </c>
+      <c r="F2911" t="s" s="12">
+        <v>7454</v>
+      </c>
+    </row>
+    <row r="2912" ht="55.6" customHeight="1">
+      <c r="A2912" t="s" s="10">
+        <v>9320</v>
+      </c>
+      <c r="B2912" s="35"/>
+      <c r="C2912" t="s" s="12">
+        <v>7481</v>
+      </c>
+      <c r="D2912" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2912" t="s" s="12">
+        <v>3316</v>
+      </c>
+      <c r="F2912" t="s" s="12">
+        <v>7480</v>
+      </c>
+    </row>
+    <row r="2913" ht="55.6" customHeight="1">
+      <c r="A2913" t="s" s="10">
+        <v>9321</v>
+      </c>
+      <c r="B2913" s="35"/>
+      <c r="C2913" t="s" s="12">
+        <v>7484</v>
+      </c>
+      <c r="D2913" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2913" t="s" s="12">
+        <v>6327</v>
+      </c>
+      <c r="F2913" t="s" s="12">
+        <v>7483</v>
+      </c>
+    </row>
+    <row r="2914" ht="55.6" customHeight="1">
+      <c r="A2914" t="s" s="10">
+        <v>9322</v>
+      </c>
+      <c r="B2914" s="11"/>
+      <c r="C2914" t="s" s="12">
+        <v>7486</v>
+      </c>
+      <c r="D2914" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2914" t="s" s="12">
+        <v>7382</v>
+      </c>
+      <c r="F2914" t="s" s="12">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="2915" ht="55.6" customHeight="1">
+      <c r="A2915" t="s" s="10">
+        <v>9323</v>
+      </c>
+      <c r="B2915" s="35"/>
+      <c r="C2915" t="s" s="12">
+        <v>7489</v>
+      </c>
+      <c r="D2915" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2915" t="s" s="12">
+        <v>3177</v>
+      </c>
+      <c r="F2915" t="s" s="12">
+        <v>7488</v>
+      </c>
+    </row>
+    <row r="2916" ht="72.35" customHeight="1">
+      <c r="A2916" t="s" s="10">
+        <v>9324</v>
+      </c>
+      <c r="B2916" s="35"/>
+      <c r="C2916" t="s" s="12">
+        <v>7492</v>
+      </c>
+      <c r="D2916" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2916" t="s" s="12">
+        <v>6534</v>
+      </c>
+      <c r="F2916" t="s" s="12">
+        <v>7491</v>
+      </c>
+    </row>
+    <row r="2917" ht="72.35" customHeight="1">
+      <c r="A2917" t="s" s="10">
+        <v>9325</v>
+      </c>
+      <c r="B2917" s="35"/>
+      <c r="C2917" t="s" s="12">
+        <v>7494</v>
+      </c>
+      <c r="D2917" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2917" t="s" s="12">
+        <v>6537</v>
+      </c>
+      <c r="F2917" t="s" s="12">
+        <v>7324</v>
+      </c>
+    </row>
+    <row r="2918" ht="55.6" customHeight="1">
+      <c r="A2918" t="s" s="10">
+        <v>9326</v>
+      </c>
+      <c r="B2918" s="11"/>
+      <c r="C2918" t="s" s="12">
+        <v>7497</v>
+      </c>
+      <c r="D2918" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2918" t="s" s="12">
+        <v>3590</v>
+      </c>
+      <c r="F2918" t="s" s="12">
+        <v>7496</v>
+      </c>
+    </row>
+    <row r="2919" ht="55.6" customHeight="1">
+      <c r="A2919" t="s" s="10">
+        <v>9327</v>
+      </c>
+      <c r="B2919" s="11"/>
+      <c r="C2919" t="s" s="12">
+        <v>7500</v>
+      </c>
+      <c r="D2919" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2919" t="s" s="12">
+        <v>3597</v>
+      </c>
+      <c r="F2919" t="s" s="12">
+        <v>7499</v>
+      </c>
+    </row>
+    <row r="2920" ht="55.6" customHeight="1">
+      <c r="A2920" t="s" s="10">
+        <v>9328</v>
+      </c>
+      <c r="B2920" s="35"/>
+      <c r="C2920" t="s" s="12">
+        <v>7503</v>
+      </c>
+      <c r="D2920" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2920" t="s" s="12">
+        <v>244</v>
+      </c>
+      <c r="F2920" t="s" s="12">
+        <v>7502</v>
+      </c>
+    </row>
+    <row r="2921" ht="55.6" customHeight="1">
+      <c r="A2921" t="s" s="10">
+        <v>9329</v>
+      </c>
+      <c r="B2921" s="35"/>
+      <c r="C2921" t="s" s="12">
+        <v>7506</v>
+      </c>
+      <c r="D2921" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2921" t="s" s="12">
+        <v>7507</v>
+      </c>
+      <c r="F2921" t="s" s="12">
+        <v>7505</v>
+      </c>
+    </row>
+    <row r="2922" ht="55.6" customHeight="1">
+      <c r="A2922" t="s" s="10">
+        <v>9330</v>
+      </c>
+      <c r="B2922" s="11"/>
+      <c r="C2922" t="s" s="12">
+        <v>7510</v>
+      </c>
+      <c r="D2922" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2922" t="s" s="12">
+        <v>88</v>
+      </c>
+      <c r="F2922" t="s" s="12">
+        <v>7509</v>
+      </c>
+    </row>
+    <row r="2923" ht="55.6" customHeight="1">
+      <c r="A2923" t="s" s="10">
+        <v>9331</v>
+      </c>
+      <c r="B2923" s="11"/>
+      <c r="C2923" t="s" s="12">
+        <v>7513</v>
+      </c>
+      <c r="D2923" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2923" t="s" s="12">
+        <v>105</v>
+      </c>
+      <c r="F2923" t="s" s="12">
+        <v>7512</v>
+      </c>
+    </row>
+    <row r="2924" ht="55.6" customHeight="1">
+      <c r="A2924" t="s" s="10">
+        <v>9332</v>
+      </c>
+      <c r="B2924" s="35"/>
+      <c r="C2924" t="s" s="12">
+        <v>7516</v>
+      </c>
+      <c r="D2924" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2924" t="s" s="12">
+        <v>225</v>
+      </c>
+      <c r="F2924" t="s" s="12">
+        <v>7515</v>
+      </c>
+    </row>
+    <row r="2925" ht="55.6" customHeight="1">
+      <c r="A2925" t="s" s="10">
+        <v>9333</v>
+      </c>
+      <c r="B2925" s="35"/>
+      <c r="C2925" t="s" s="12">
+        <v>7519</v>
+      </c>
+      <c r="D2925" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2925" t="s" s="12">
+        <v>7520</v>
+      </c>
+      <c r="F2925" t="s" s="12">
+        <v>7518</v>
+      </c>
+    </row>
+    <row r="2926" ht="55.6" customHeight="1">
+      <c r="A2926" t="s" s="10">
+        <v>9334</v>
+      </c>
+      <c r="B2926" s="11"/>
+      <c r="C2926" t="s" s="12">
+        <v>7523</v>
+      </c>
+      <c r="D2926" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2926" t="s" s="12">
+        <v>3227</v>
+      </c>
+      <c r="F2926" t="s" s="12">
+        <v>7522</v>
+      </c>
+    </row>
+    <row r="2927" ht="55.6" customHeight="1">
+      <c r="A2927" t="s" s="10">
+        <v>9335</v>
+      </c>
+      <c r="B2927" s="11"/>
+      <c r="C2927" t="s" s="12">
+        <v>7526</v>
+      </c>
+      <c r="D2927" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2927" t="s" s="12">
+        <v>3614</v>
+      </c>
+      <c r="F2927" t="s" s="12">
+        <v>7525</v>
+      </c>
+    </row>
+    <row r="2928" ht="55.6" customHeight="1">
+      <c r="A2928" t="s" s="10">
+        <v>9336</v>
+      </c>
+      <c r="B2928" s="35"/>
+      <c r="C2928" t="s" s="12">
+        <v>7529</v>
+      </c>
+      <c r="D2928" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2928" t="s" s="12">
+        <v>3620</v>
+      </c>
+      <c r="F2928" t="s" s="12">
+        <v>7528</v>
+      </c>
+    </row>
+    <row r="2929" ht="55.6" customHeight="1">
+      <c r="A2929" t="s" s="10">
+        <v>9337</v>
+      </c>
+      <c r="B2929" s="35"/>
+      <c r="C2929" t="s" s="12">
+        <v>7532</v>
+      </c>
+      <c r="D2929" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2929" t="s" s="12">
+        <v>3607</v>
+      </c>
+      <c r="F2929" t="s" s="12">
+        <v>7531</v>
+      </c>
+    </row>
+    <row r="2930" ht="55.6" customHeight="1">
+      <c r="A2930" t="s" s="10">
+        <v>9338</v>
+      </c>
+      <c r="B2930" s="11"/>
+      <c r="C2930" t="s" s="12">
+        <v>7535</v>
+      </c>
+      <c r="D2930" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2930" t="s" s="12">
+        <v>3320</v>
+      </c>
+      <c r="F2930" t="s" s="12">
+        <v>7534</v>
+      </c>
+    </row>
+    <row r="2931" ht="55.6" customHeight="1">
+      <c r="A2931" t="s" s="10">
+        <v>9339</v>
+      </c>
+      <c r="B2931" s="11"/>
+      <c r="C2931" t="s" s="12">
+        <v>7538</v>
+      </c>
+      <c r="D2931" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2931" t="s" s="12">
+        <v>3324</v>
+      </c>
+      <c r="F2931" t="s" s="12">
+        <v>7537</v>
+      </c>
+    </row>
+    <row r="2932" ht="72.35" customHeight="1">
+      <c r="A2932" t="s" s="10">
+        <v>9340</v>
+      </c>
+      <c r="B2932" s="35"/>
+      <c r="C2932" t="s" s="12">
+        <v>7541</v>
+      </c>
+      <c r="D2932" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2932" t="s" s="12">
+        <v>7542</v>
+      </c>
+      <c r="F2932" t="s" s="12">
+        <v>7540</v>
+      </c>
+    </row>
+    <row r="2933" ht="72.35" customHeight="1">
+      <c r="A2933" t="s" s="10">
+        <v>9341</v>
+      </c>
+      <c r="B2933" s="35"/>
+      <c r="C2933" t="s" s="12">
+        <v>7545</v>
+      </c>
+      <c r="D2933" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2933" t="s" s="12">
+        <v>7546</v>
+      </c>
+      <c r="F2933" t="s" s="12">
+        <v>7544</v>
+      </c>
+    </row>
+    <row r="2934" ht="55.6" customHeight="1">
+      <c r="A2934" t="s" s="10">
+        <v>9342</v>
+      </c>
+      <c r="B2934" s="11"/>
+      <c r="C2934" t="s" s="12">
+        <v>7549</v>
+      </c>
+      <c r="D2934" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2934" t="s" s="12">
+        <v>3346</v>
+      </c>
+      <c r="F2934" t="s" s="12">
+        <v>7548</v>
+      </c>
+    </row>
+    <row r="2935" ht="55.6" customHeight="1">
+      <c r="A2935" t="s" s="10">
+        <v>9343</v>
+      </c>
+      <c r="B2935" s="11"/>
+      <c r="C2935" t="s" s="12">
+        <v>7552</v>
+      </c>
+      <c r="D2935" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2935" t="s" s="12">
+        <v>3350</v>
+      </c>
+      <c r="F2935" t="s" s="12">
+        <v>7551</v>
+      </c>
+    </row>
+    <row r="2936" ht="55.6" customHeight="1">
+      <c r="A2936" t="s" s="10">
+        <v>9344</v>
+      </c>
+      <c r="B2936" s="35"/>
+      <c r="C2936" t="s" s="12">
+        <v>7555</v>
+      </c>
+      <c r="D2936" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2936" t="s" s="12">
+        <v>7556</v>
+      </c>
+      <c r="F2936" t="s" s="12">
+        <v>7554</v>
+      </c>
+    </row>
+    <row r="2937" ht="72.35" customHeight="1">
+      <c r="A2937" t="s" s="10">
+        <v>9345</v>
+      </c>
+      <c r="B2937" s="35"/>
+      <c r="C2937" t="s" s="12">
+        <v>7559</v>
+      </c>
+      <c r="D2937" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2937" t="s" s="12">
+        <v>7560</v>
+      </c>
+      <c r="F2937" t="s" s="12">
+        <v>7558</v>
+      </c>
+    </row>
+    <row r="2938" ht="55.6" customHeight="1">
+      <c r="A2938" t="s" s="10">
+        <v>9346</v>
+      </c>
+      <c r="B2938" s="11"/>
+      <c r="C2938" t="s" s="12">
+        <v>7563</v>
+      </c>
+      <c r="D2938" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2938" t="s" s="12">
+        <v>3555</v>
+      </c>
+      <c r="F2938" t="s" s="12">
+        <v>7562</v>
+      </c>
+    </row>
+    <row r="2939" ht="55.6" customHeight="1">
+      <c r="A2939" t="s" s="10">
+        <v>9347</v>
+      </c>
+      <c r="B2939" s="11"/>
+      <c r="C2939" t="s" s="12">
+        <v>7566</v>
+      </c>
+      <c r="D2939" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2939" t="s" s="12">
+        <v>3559</v>
+      </c>
+      <c r="F2939" t="s" s="12">
+        <v>7565</v>
+      </c>
+    </row>
+    <row r="2940" ht="72.35" customHeight="1">
+      <c r="A2940" t="s" s="10">
+        <v>9348</v>
+      </c>
+      <c r="B2940" s="35"/>
+      <c r="C2940" t="s" s="12">
+        <v>7569</v>
+      </c>
+      <c r="D2940" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2940" t="s" s="12">
+        <v>7570</v>
+      </c>
+      <c r="F2940" t="s" s="12">
+        <v>7568</v>
+      </c>
+    </row>
+    <row r="2941" ht="72.35" customHeight="1">
+      <c r="A2941" t="s" s="10">
+        <v>9349</v>
+      </c>
+      <c r="B2941" s="35"/>
+      <c r="C2941" t="s" s="12">
+        <v>7573</v>
+      </c>
+      <c r="D2941" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2941" t="s" s="12">
+        <v>7574</v>
+      </c>
+      <c r="F2941" t="s" s="12">
+        <v>7572</v>
+      </c>
+    </row>
+    <row r="2942" ht="55.6" customHeight="1">
+      <c r="A2942" t="s" s="10">
+        <v>9350</v>
+      </c>
+      <c r="B2942" s="11"/>
+      <c r="C2942" t="s" s="12">
+        <v>7577</v>
+      </c>
+      <c r="D2942" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2942" t="s" s="12">
+        <v>3469</v>
+      </c>
+      <c r="F2942" t="s" s="12">
+        <v>7576</v>
+      </c>
+    </row>
+    <row r="2943" ht="55.6" customHeight="1">
+      <c r="A2943" t="s" s="10">
+        <v>9351</v>
+      </c>
+      <c r="B2943" s="11"/>
+      <c r="C2943" t="s" s="12">
+        <v>7580</v>
+      </c>
+      <c r="D2943" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2943" t="s" s="12">
+        <v>3473</v>
+      </c>
+      <c r="F2943" t="s" s="12">
+        <v>7579</v>
+      </c>
+    </row>
+    <row r="2944" ht="55.6" customHeight="1">
+      <c r="A2944" t="s" s="10">
+        <v>9352</v>
+      </c>
+      <c r="B2944" s="35"/>
+      <c r="C2944" t="s" s="12">
+        <v>7583</v>
+      </c>
+      <c r="D2944" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2944" t="s" s="12">
+        <v>7584</v>
+      </c>
+      <c r="F2944" t="s" s="12">
+        <v>7582</v>
+      </c>
+    </row>
+    <row r="2945" ht="55.6" customHeight="1">
+      <c r="A2945" t="s" s="10">
+        <v>9353</v>
+      </c>
+      <c r="B2945" s="35"/>
+      <c r="C2945" t="s" s="12">
+        <v>7587</v>
+      </c>
+      <c r="D2945" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2945" t="s" s="12">
+        <v>7588</v>
+      </c>
+      <c r="F2945" t="s" s="12">
+        <v>7586</v>
+      </c>
+    </row>
+    <row r="2946" ht="55.6" customHeight="1">
+      <c r="A2946" t="s" s="10">
+        <v>9354</v>
+      </c>
+      <c r="B2946" s="11"/>
+      <c r="C2946" t="s" s="12">
+        <v>7591</v>
+      </c>
+      <c r="D2946" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2946" t="s" s="12">
+        <v>3378</v>
+      </c>
+      <c r="F2946" t="s" s="12">
+        <v>7590</v>
+      </c>
+    </row>
+    <row r="2947" ht="55.6" customHeight="1">
+      <c r="A2947" t="s" s="10">
+        <v>9355</v>
+      </c>
+      <c r="B2947" s="11"/>
+      <c r="C2947" t="s" s="12">
+        <v>7594</v>
+      </c>
+      <c r="D2947" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2947" t="s" s="12">
+        <v>3382</v>
+      </c>
+      <c r="F2947" t="s" s="12">
+        <v>7593</v>
+      </c>
+    </row>
+    <row r="2948" ht="55.6" customHeight="1">
+      <c r="A2948" t="s" s="10">
+        <v>9356</v>
+      </c>
+      <c r="B2948" s="35"/>
+      <c r="C2948" t="s" s="12">
+        <v>7597</v>
+      </c>
+      <c r="D2948" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2948" t="s" s="12">
+        <v>7598</v>
+      </c>
+      <c r="F2948" t="s" s="12">
+        <v>7596</v>
+      </c>
+    </row>
+    <row r="2949" ht="55.6" customHeight="1">
+      <c r="A2949" t="s" s="10">
+        <v>9357</v>
+      </c>
+      <c r="B2949" s="35"/>
+      <c r="C2949" t="s" s="12">
+        <v>7601</v>
+      </c>
+      <c r="D2949" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2949" t="s" s="12">
+        <v>3386</v>
+      </c>
+      <c r="F2949" t="s" s="12">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="2950" ht="55.6" customHeight="1">
+      <c r="A2950" t="s" s="10">
+        <v>9358</v>
+      </c>
+      <c r="B2950" s="11"/>
+      <c r="C2950" t="s" s="12">
+        <v>7604</v>
+      </c>
+      <c r="D2950" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2950" t="s" s="12">
+        <v>3477</v>
+      </c>
+      <c r="F2950" t="s" s="12">
+        <v>7603</v>
+      </c>
+    </row>
+    <row r="2951" ht="55.6" customHeight="1">
+      <c r="A2951" t="s" s="10">
+        <v>9359</v>
+      </c>
+      <c r="B2951" s="11"/>
+      <c r="C2951" t="s" s="12">
+        <v>7607</v>
+      </c>
+      <c r="D2951" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2951" t="s" s="12">
+        <v>3481</v>
+      </c>
+      <c r="F2951" t="s" s="12">
+        <v>7606</v>
+      </c>
+    </row>
+    <row r="2952" ht="72.35" customHeight="1">
+      <c r="A2952" t="s" s="10">
+        <v>9360</v>
+      </c>
+      <c r="B2952" s="35"/>
+      <c r="C2952" t="s" s="12">
+        <v>7610</v>
+      </c>
+      <c r="D2952" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2952" t="s" s="12">
+        <v>7611</v>
+      </c>
+      <c r="F2952" t="s" s="12">
+        <v>7609</v>
+      </c>
+    </row>
+    <row r="2953" ht="72.35" customHeight="1">
+      <c r="A2953" t="s" s="10">
+        <v>9361</v>
+      </c>
+      <c r="B2953" s="35"/>
+      <c r="C2953" t="s" s="12">
+        <v>7614</v>
+      </c>
+      <c r="D2953" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2953" t="s" s="12">
+        <v>7615</v>
+      </c>
+      <c r="F2953" t="s" s="12">
+        <v>7613</v>
+      </c>
+    </row>
+    <row r="2954" ht="55.6" customHeight="1">
+      <c r="A2954" t="s" s="10">
+        <v>9362</v>
+      </c>
+      <c r="B2954" s="11"/>
+      <c r="C2954" t="s" s="12">
+        <v>7618</v>
+      </c>
+      <c r="D2954" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2954" t="s" s="12">
+        <v>3485</v>
+      </c>
+      <c r="F2954" t="s" s="12">
+        <v>7617</v>
+      </c>
+    </row>
+    <row r="2955" ht="55.6" customHeight="1">
+      <c r="A2955" t="s" s="10">
+        <v>9363</v>
+      </c>
+      <c r="B2955" s="11"/>
+      <c r="C2955" t="s" s="12">
+        <v>7621</v>
+      </c>
+      <c r="D2955" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2955" t="s" s="12">
+        <v>3489</v>
+      </c>
+      <c r="F2955" t="s" s="12">
+        <v>7620</v>
+      </c>
+    </row>
+    <row r="2956" ht="55.6" customHeight="1">
+      <c r="A2956" t="s" s="10">
+        <v>9364</v>
+      </c>
+      <c r="B2956" s="35"/>
+      <c r="C2956" t="s" s="12">
+        <v>7624</v>
+      </c>
+      <c r="D2956" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2956" t="s" s="12">
+        <v>7625</v>
+      </c>
+      <c r="F2956" t="s" s="12">
+        <v>7623</v>
+      </c>
+    </row>
+    <row r="2957" ht="72.35" customHeight="1">
+      <c r="A2957" t="s" s="10">
+        <v>9365</v>
+      </c>
+      <c r="B2957" s="35"/>
+      <c r="C2957" t="s" s="12">
+        <v>7628</v>
+      </c>
+      <c r="D2957" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2957" t="s" s="12">
+        <v>7629</v>
+      </c>
+      <c r="F2957" t="s" s="12">
+        <v>7627</v>
+      </c>
+    </row>
+    <row r="2958" ht="55.6" customHeight="1">
+      <c r="A2958" t="s" s="10">
+        <v>9366</v>
+      </c>
+      <c r="B2958" s="11"/>
+      <c r="C2958" t="s" s="12">
+        <v>7632</v>
+      </c>
+      <c r="D2958" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2958" t="s" s="12">
+        <v>3493</v>
+      </c>
+      <c r="F2958" t="s" s="12">
+        <v>7631</v>
+      </c>
+    </row>
+    <row r="2959" ht="55.6" customHeight="1">
+      <c r="A2959" t="s" s="10">
+        <v>9367</v>
+      </c>
+      <c r="B2959" s="11"/>
+      <c r="C2959" t="s" s="12">
+        <v>7635</v>
+      </c>
+      <c r="D2959" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2959" t="s" s="12">
+        <v>3497</v>
+      </c>
+      <c r="F2959" t="s" s="12">
+        <v>7634</v>
+      </c>
+    </row>
+    <row r="2960" ht="72.35" customHeight="1">
+      <c r="A2960" t="s" s="10">
+        <v>9368</v>
+      </c>
+      <c r="B2960" s="35"/>
+      <c r="C2960" t="s" s="12">
+        <v>7638</v>
+      </c>
+      <c r="D2960" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2960" t="s" s="12">
+        <v>275</v>
+      </c>
+      <c r="F2960" t="s" s="12">
+        <v>7637</v>
+      </c>
+    </row>
+    <row r="2961" ht="72.35" customHeight="1">
+      <c r="A2961" t="s" s="10">
+        <v>9369</v>
+      </c>
+      <c r="B2961" s="35"/>
+      <c r="C2961" t="s" s="12">
+        <v>7641</v>
+      </c>
+      <c r="D2961" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2961" t="s" s="12">
+        <v>7642</v>
+      </c>
+      <c r="F2961" t="s" s="12">
+        <v>7640</v>
+      </c>
+    </row>
+    <row r="2962" ht="55.6" customHeight="1">
+      <c r="A2962" t="s" s="10">
+        <v>9370</v>
+      </c>
+      <c r="B2962" s="11"/>
+      <c r="C2962" t="s" s="12">
+        <v>7645</v>
+      </c>
+      <c r="D2962" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2962" t="s" s="12">
+        <v>7646</v>
+      </c>
+      <c r="F2962" t="s" s="12">
+        <v>7644</v>
+      </c>
+    </row>
+    <row r="2963" ht="55.6" customHeight="1">
+      <c r="A2963" t="s" s="10">
+        <v>9371</v>
+      </c>
+      <c r="B2963" s="11"/>
+      <c r="C2963" t="s" s="12">
+        <v>7649</v>
+      </c>
+      <c r="D2963" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2963" t="s" s="12">
+        <v>7650</v>
+      </c>
+      <c r="F2963" t="s" s="12">
+        <v>7648</v>
+      </c>
+    </row>
+    <row r="2964" ht="55.6" customHeight="1">
+      <c r="A2964" t="s" s="10">
+        <v>9372</v>
+      </c>
+      <c r="B2964" s="35"/>
+      <c r="C2964" t="s" s="12">
+        <v>7653</v>
+      </c>
+      <c r="D2964" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2964" t="s" s="12">
+        <v>3457</v>
+      </c>
+      <c r="F2964" t="s" s="12">
+        <v>7652</v>
+      </c>
+    </row>
+    <row r="2965" ht="72.35" customHeight="1">
+      <c r="A2965" t="s" s="10">
+        <v>9373</v>
+      </c>
+      <c r="B2965" s="35"/>
+      <c r="C2965" t="s" s="12">
+        <v>7656</v>
+      </c>
+      <c r="D2965" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2965" t="s" s="12">
+        <v>7657</v>
+      </c>
+      <c r="F2965" t="s" s="12">
+        <v>7655</v>
+      </c>
+    </row>
+    <row r="2966" ht="55.6" customHeight="1">
+      <c r="A2966" t="s" s="10">
+        <v>9374</v>
+      </c>
+      <c r="B2966" s="11"/>
+      <c r="C2966" t="s" s="12">
+        <v>7660</v>
+      </c>
+      <c r="D2966" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2966" t="s" s="12">
+        <v>3501</v>
+      </c>
+      <c r="F2966" t="s" s="12">
+        <v>7659</v>
+      </c>
+    </row>
+    <row r="2967" ht="55.6" customHeight="1">
+      <c r="A2967" t="s" s="10">
+        <v>9375</v>
+      </c>
+      <c r="B2967" s="11"/>
+      <c r="C2967" t="s" s="12">
+        <v>7663</v>
+      </c>
+      <c r="D2967" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2967" t="s" s="12">
+        <v>3505</v>
+      </c>
+      <c r="F2967" t="s" s="12">
+        <v>7662</v>
+      </c>
+    </row>
+    <row r="2968" ht="72.35" customHeight="1">
+      <c r="A2968" t="s" s="10">
+        <v>9376</v>
+      </c>
+      <c r="B2968" s="35"/>
+      <c r="C2968" t="s" s="12">
+        <v>7666</v>
+      </c>
+      <c r="D2968" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2968" t="s" s="12">
+        <v>280</v>
+      </c>
+      <c r="F2968" t="s" s="12">
+        <v>7665</v>
+      </c>
+    </row>
+    <row r="2969" ht="72.35" customHeight="1">
+      <c r="A2969" t="s" s="10">
+        <v>9377</v>
+      </c>
+      <c r="B2969" s="35"/>
+      <c r="C2969" t="s" s="12">
+        <v>7669</v>
+      </c>
+      <c r="D2969" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2969" t="s" s="12">
+        <v>3535</v>
+      </c>
+      <c r="F2969" t="s" s="12">
+        <v>7668</v>
+      </c>
+    </row>
+    <row r="2970" ht="55.6" customHeight="1">
+      <c r="A2970" t="s" s="10">
+        <v>9378</v>
+      </c>
+      <c r="B2970" s="11"/>
+      <c r="C2970" t="s" s="12">
+        <v>7672</v>
+      </c>
+      <c r="D2970" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2970" t="s" s="12">
+        <v>3509</v>
+      </c>
+      <c r="F2970" t="s" s="12">
+        <v>7671</v>
+      </c>
+    </row>
+    <row r="2971" ht="55.6" customHeight="1">
+      <c r="A2971" t="s" s="10">
+        <v>9379</v>
+      </c>
+      <c r="B2971" s="11"/>
+      <c r="C2971" t="s" s="12">
+        <v>7675</v>
+      </c>
+      <c r="D2971" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2971" t="s" s="12">
+        <v>3513</v>
+      </c>
+      <c r="F2971" t="s" s="12">
+        <v>7674</v>
+      </c>
+    </row>
+    <row r="2972" ht="55.6" customHeight="1">
+      <c r="A2972" t="s" s="10">
+        <v>9380</v>
+      </c>
+      <c r="B2972" s="35"/>
+      <c r="C2972" t="s" s="12">
+        <v>7678</v>
+      </c>
+      <c r="D2972" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2972" t="s" s="12">
+        <v>7679</v>
+      </c>
+      <c r="F2972" t="s" s="12">
+        <v>7677</v>
+      </c>
+    </row>
+    <row r="2973" ht="72.35" customHeight="1">
+      <c r="A2973" t="s" s="10">
+        <v>9381</v>
+      </c>
+      <c r="B2973" s="35"/>
+      <c r="C2973" t="s" s="12">
+        <v>7682</v>
+      </c>
+      <c r="D2973" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2973" t="s" s="12">
+        <v>7683</v>
+      </c>
+      <c r="F2973" t="s" s="12">
+        <v>7681</v>
+      </c>
+    </row>
+    <row r="2974" ht="55.6" customHeight="1">
+      <c r="A2974" t="s" s="10">
+        <v>9382</v>
+      </c>
+      <c r="B2974" s="11"/>
+      <c r="C2974" t="s" s="12">
+        <v>7686</v>
+      </c>
+      <c r="D2974" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2974" t="s" s="12">
+        <v>3425</v>
+      </c>
+      <c r="F2974" t="s" s="12">
+        <v>7685</v>
+      </c>
+    </row>
+    <row r="2975" ht="55.6" customHeight="1">
+      <c r="A2975" t="s" s="10">
+        <v>9383</v>
+      </c>
+      <c r="B2975" s="11"/>
+      <c r="C2975" t="s" s="12">
+        <v>7689</v>
+      </c>
+      <c r="D2975" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2975" t="s" s="12">
+        <v>3429</v>
+      </c>
+      <c r="F2975" t="s" s="12">
+        <v>7688</v>
+      </c>
+    </row>
+    <row r="2976" ht="55.6" customHeight="1">
+      <c r="A2976" t="s" s="10">
+        <v>9384</v>
+      </c>
+      <c r="B2976" s="11"/>
+      <c r="C2976" t="s" s="12">
+        <v>7692</v>
+      </c>
+      <c r="D2976" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2976" t="s" s="12">
+        <v>3531</v>
+      </c>
+      <c r="F2976" t="s" s="12">
+        <v>7691</v>
+      </c>
+    </row>
+    <row r="2977" ht="72.35" customHeight="1">
+      <c r="A2977" t="s" s="10">
+        <v>9385</v>
+      </c>
+      <c r="B2977" s="35"/>
+      <c r="C2977" t="s" s="12">
+        <v>7695</v>
+      </c>
+      <c r="D2977" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2977" t="s" s="12">
+        <v>7696</v>
+      </c>
+      <c r="F2977" t="s" s="12">
+        <v>7694</v>
+      </c>
+    </row>
+    <row r="2978" ht="55.6" customHeight="1">
+      <c r="A2978" t="s" s="10">
+        <v>9386</v>
+      </c>
+      <c r="B2978" s="11"/>
+      <c r="C2978" t="s" s="12">
+        <v>7699</v>
+      </c>
+      <c r="D2978" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2978" t="s" s="12">
+        <v>3571</v>
+      </c>
+      <c r="F2978" t="s" s="12">
+        <v>7698</v>
+      </c>
+    </row>
+    <row r="2979" ht="55.6" customHeight="1">
+      <c r="A2979" t="s" s="10">
+        <v>9387</v>
+      </c>
+      <c r="B2979" s="11"/>
+      <c r="C2979" t="s" s="12">
+        <v>7702</v>
+      </c>
+      <c r="D2979" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2979" t="s" s="12">
+        <v>3575</v>
+      </c>
+      <c r="F2979" t="s" s="12">
+        <v>7701</v>
+      </c>
+    </row>
+    <row r="2980" ht="55.6" customHeight="1">
+      <c r="A2980" t="s" s="10">
+        <v>9388</v>
+      </c>
+      <c r="B2980" s="35"/>
+      <c r="C2980" t="s" s="12">
+        <v>7705</v>
+      </c>
+      <c r="D2980" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2980" t="s" s="12">
+        <v>7706</v>
+      </c>
+      <c r="F2980" t="s" s="12">
+        <v>7704</v>
+      </c>
+    </row>
+    <row r="2981" ht="55.6" customHeight="1">
+      <c r="A2981" t="s" s="10">
+        <v>9389</v>
+      </c>
+      <c r="B2981" s="35"/>
+      <c r="C2981" t="s" s="12">
+        <v>7709</v>
+      </c>
+      <c r="D2981" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2981" t="s" s="12">
+        <v>7710</v>
+      </c>
+      <c r="F2981" t="s" s="12">
+        <v>7708</v>
+      </c>
+    </row>
+    <row r="2982" ht="55.6" customHeight="1">
+      <c r="A2982" t="s" s="10">
+        <v>9390</v>
+      </c>
+      <c r="B2982" s="11"/>
+      <c r="C2982" t="s" s="12">
+        <v>7713</v>
+      </c>
+      <c r="D2982" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2982" t="s" s="12">
+        <v>3354</v>
+      </c>
+      <c r="F2982" t="s" s="12">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="2983" ht="55.6" customHeight="1">
+      <c r="A2983" t="s" s="10">
+        <v>9391</v>
+      </c>
+      <c r="B2983" s="11"/>
+      <c r="C2983" t="s" s="12">
+        <v>7716</v>
+      </c>
+      <c r="D2983" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2983" t="s" s="12">
+        <v>3358</v>
+      </c>
+      <c r="F2983" t="s" s="12">
+        <v>7715</v>
+      </c>
+    </row>
+    <row r="2984" ht="55.6" customHeight="1">
+      <c r="A2984" t="s" s="10">
+        <v>9392</v>
+      </c>
+      <c r="B2984" s="11"/>
+      <c r="C2984" t="s" s="12">
+        <v>7719</v>
+      </c>
+      <c r="D2984" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2984" t="s" s="12">
+        <v>7720</v>
+      </c>
+      <c r="F2984" t="s" s="12">
+        <v>7718</v>
+      </c>
+    </row>
+    <row r="2985" ht="72.35" customHeight="1">
+      <c r="A2985" t="s" s="10">
+        <v>9393</v>
+      </c>
+      <c r="B2985" s="35"/>
+      <c r="C2985" t="s" s="12">
+        <v>7723</v>
+      </c>
+      <c r="D2985" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2985" t="s" s="12">
+        <v>7724</v>
+      </c>
+      <c r="F2985" t="s" s="12">
+        <v>7722</v>
+      </c>
+    </row>
+    <row r="2986" ht="55.6" customHeight="1">
+      <c r="A2986" t="s" s="10">
+        <v>9394</v>
+      </c>
+      <c r="B2986" s="11"/>
+      <c r="C2986" t="s" s="12">
+        <v>7727</v>
+      </c>
+      <c r="D2986" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2986" t="s" s="12">
+        <v>3433</v>
+      </c>
+      <c r="F2986" t="s" s="12">
+        <v>7726</v>
+      </c>
+    </row>
+    <row r="2987" ht="55.6" customHeight="1">
+      <c r="A2987" t="s" s="10">
+        <v>9395</v>
+      </c>
+      <c r="B2987" s="11"/>
+      <c r="C2987" t="s" s="12">
+        <v>7730</v>
+      </c>
+      <c r="D2987" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2987" t="s" s="12">
+        <v>3437</v>
+      </c>
+      <c r="F2987" t="s" s="12">
+        <v>7729</v>
+      </c>
+    </row>
+    <row r="2988" ht="72.35" customHeight="1">
+      <c r="A2988" t="s" s="10">
+        <v>9396</v>
+      </c>
+      <c r="B2988" s="35"/>
+      <c r="C2988" t="s" s="12">
+        <v>7733</v>
+      </c>
+      <c r="D2988" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2988" t="s" s="12">
+        <v>7734</v>
+      </c>
+      <c r="F2988" t="s" s="12">
+        <v>7732</v>
+      </c>
+    </row>
+    <row r="2989" ht="72.35" customHeight="1">
+      <c r="A2989" t="s" s="10">
+        <v>9397</v>
+      </c>
+      <c r="B2989" s="35"/>
+      <c r="C2989" t="s" s="12">
+        <v>7737</v>
+      </c>
+      <c r="D2989" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2989" t="s" s="12">
+        <v>7738</v>
+      </c>
+      <c r="F2989" t="s" s="12">
+        <v>7736</v>
+      </c>
+    </row>
+    <row r="2990" ht="55.6" customHeight="1">
+      <c r="A2990" t="s" s="10">
+        <v>9398</v>
+      </c>
+      <c r="B2990" s="11"/>
+      <c r="C2990" t="s" s="12">
+        <v>7741</v>
+      </c>
+      <c r="D2990" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2990" t="s" s="12">
+        <v>3441</v>
+      </c>
+      <c r="F2990" t="s" s="12">
+        <v>7740</v>
+      </c>
+    </row>
+    <row r="2991" ht="55.6" customHeight="1">
+      <c r="A2991" t="s" s="10">
+        <v>9399</v>
+      </c>
+      <c r="B2991" s="11"/>
+      <c r="C2991" t="s" s="12">
+        <v>7744</v>
+      </c>
+      <c r="D2991" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2991" t="s" s="12">
+        <v>3445</v>
+      </c>
+      <c r="F2991" t="s" s="12">
+        <v>7743</v>
+      </c>
+    </row>
+    <row r="2992" ht="55.6" customHeight="1">
+      <c r="A2992" t="s" s="10">
+        <v>9400</v>
+      </c>
+      <c r="B2992" s="35"/>
+      <c r="C2992" t="s" s="12">
+        <v>7747</v>
+      </c>
+      <c r="D2992" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2992" t="s" s="12">
+        <v>7748</v>
+      </c>
+      <c r="F2992" t="s" s="12">
+        <v>7746</v>
+      </c>
+    </row>
+    <row r="2993" ht="55.6" customHeight="1">
+      <c r="A2993" t="s" s="10">
+        <v>9401</v>
+      </c>
+      <c r="B2993" s="35"/>
+      <c r="C2993" t="s" s="12">
+        <v>7751</v>
+      </c>
+      <c r="D2993" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2993" t="s" s="12">
+        <v>7752</v>
+      </c>
+      <c r="F2993" t="s" s="12">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="2994" ht="55.6" customHeight="1">
+      <c r="A2994" t="s" s="10">
+        <v>9402</v>
+      </c>
+      <c r="B2994" s="11"/>
+      <c r="C2994" t="s" s="12">
+        <v>7755</v>
+      </c>
+      <c r="D2994" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2994" t="s" s="12">
+        <v>3362</v>
+      </c>
+      <c r="F2994" t="s" s="12">
+        <v>7754</v>
+      </c>
+    </row>
+    <row r="2995" ht="55.6" customHeight="1">
+      <c r="A2995" t="s" s="10">
+        <v>9403</v>
+      </c>
+      <c r="B2995" s="11"/>
+      <c r="C2995" t="s" s="12">
+        <v>7758</v>
+      </c>
+      <c r="D2995" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2995" t="s" s="12">
+        <v>3366</v>
+      </c>
+      <c r="F2995" t="s" s="12">
+        <v>7757</v>
+      </c>
+    </row>
+    <row r="2996" ht="72.35" customHeight="1">
+      <c r="A2996" t="s" s="10">
+        <v>9404</v>
+      </c>
+      <c r="B2996" s="35"/>
+      <c r="C2996" t="s" s="12">
+        <v>7761</v>
+      </c>
+      <c r="D2996" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2996" t="s" s="12">
+        <v>3628</v>
+      </c>
+      <c r="F2996" t="s" s="12">
+        <v>7760</v>
+      </c>
+    </row>
+    <row r="2997" ht="72.35" customHeight="1">
+      <c r="A2997" t="s" s="10">
+        <v>9405</v>
+      </c>
+      <c r="B2997" s="35"/>
+      <c r="C2997" t="s" s="12">
+        <v>7764</v>
+      </c>
+      <c r="D2997" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2997" t="s" s="12">
+        <v>3632</v>
+      </c>
+      <c r="F2997" t="s" s="12">
+        <v>7763</v>
+      </c>
+    </row>
+    <row r="2998" ht="55.6" customHeight="1">
+      <c r="A2998" t="s" s="10">
+        <v>9406</v>
+      </c>
+      <c r="B2998" s="11"/>
+      <c r="C2998" t="s" s="12">
+        <v>7767</v>
+      </c>
+      <c r="D2998" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2998" t="s" s="12">
+        <v>3390</v>
+      </c>
+      <c r="F2998" t="s" s="12">
+        <v>7766</v>
+      </c>
+    </row>
+    <row r="2999" ht="55.6" customHeight="1">
+      <c r="A2999" t="s" s="10">
+        <v>9407</v>
+      </c>
+      <c r="B2999" s="11"/>
+      <c r="C2999" t="s" s="12">
+        <v>7770</v>
+      </c>
+      <c r="D2999" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E2999" t="s" s="12">
+        <v>3394</v>
+      </c>
+      <c r="F2999" t="s" s="12">
+        <v>7769</v>
+      </c>
+    </row>
+    <row r="3000" ht="55.6" customHeight="1">
+      <c r="A3000" t="s" s="10">
+        <v>9408</v>
+      </c>
+      <c r="B3000" s="35"/>
+      <c r="C3000" t="s" s="12">
+        <v>7773</v>
+      </c>
+      <c r="D3000" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3000" t="s" s="12">
+        <v>7774</v>
+      </c>
+      <c r="F3000" t="s" s="12">
+        <v>7772</v>
+      </c>
+    </row>
+    <row r="3001" ht="55.6" customHeight="1">
+      <c r="A3001" t="s" s="10">
+        <v>9409</v>
+      </c>
+      <c r="B3001" s="35"/>
+      <c r="C3001" t="s" s="12">
+        <v>7777</v>
+      </c>
+      <c r="D3001" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3001" t="s" s="12">
+        <v>7778</v>
+      </c>
+      <c r="F3001" t="s" s="12">
+        <v>7776</v>
+      </c>
+    </row>
+    <row r="3002" ht="55.6" customHeight="1">
+      <c r="A3002" t="s" s="10">
+        <v>9410</v>
+      </c>
+      <c r="B3002" s="11"/>
+      <c r="C3002" t="s" s="12">
+        <v>7781</v>
+      </c>
+      <c r="D3002" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3002" t="s" s="12">
+        <v>3461</v>
+      </c>
+      <c r="F3002" t="s" s="12">
+        <v>7780</v>
+      </c>
+    </row>
+    <row r="3003" ht="55.6" customHeight="1">
+      <c r="A3003" t="s" s="10">
+        <v>9411</v>
+      </c>
+      <c r="B3003" s="11"/>
+      <c r="C3003" t="s" s="12">
+        <v>7784</v>
+      </c>
+      <c r="D3003" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3003" t="s" s="12">
+        <v>3465</v>
+      </c>
+      <c r="F3003" t="s" s="12">
+        <v>7783</v>
+      </c>
+    </row>
+    <row r="3004" ht="72.35" customHeight="1">
+      <c r="A3004" t="s" s="10">
+        <v>9412</v>
+      </c>
+      <c r="B3004" s="35"/>
+      <c r="C3004" t="s" s="12">
+        <v>7787</v>
+      </c>
+      <c r="D3004" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3004" t="s" s="12">
+        <v>3312</v>
+      </c>
+      <c r="F3004" t="s" s="12">
+        <v>7786</v>
+      </c>
+    </row>
+    <row r="3005" ht="72.35" customHeight="1">
+      <c r="A3005" t="s" s="10">
+        <v>9413</v>
+      </c>
+      <c r="B3005" s="35"/>
+      <c r="C3005" t="s" s="12">
+        <v>7790</v>
+      </c>
+      <c r="D3005" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3005" t="s" s="12">
+        <v>7791</v>
+      </c>
+      <c r="F3005" t="s" s="12">
+        <v>7789</v>
+      </c>
+    </row>
+    <row r="3006" ht="55.6" customHeight="1">
+      <c r="A3006" t="s" s="10">
+        <v>9414</v>
+      </c>
+      <c r="B3006" s="11"/>
+      <c r="C3006" t="s" s="12">
+        <v>7794</v>
+      </c>
+      <c r="D3006" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3006" t="s" s="12">
+        <v>3398</v>
+      </c>
+      <c r="F3006" t="s" s="12">
+        <v>7793</v>
+      </c>
+    </row>
+    <row r="3007" ht="55.6" customHeight="1">
+      <c r="A3007" t="s" s="10">
+        <v>9415</v>
+      </c>
+      <c r="B3007" s="11"/>
+      <c r="C3007" t="s" s="12">
+        <v>7797</v>
+      </c>
+      <c r="D3007" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3007" t="s" s="12">
+        <v>3402</v>
+      </c>
+      <c r="F3007" t="s" s="12">
+        <v>7796</v>
+      </c>
+    </row>
+    <row r="3008" ht="55.6" customHeight="1">
+      <c r="A3008" t="s" s="10">
+        <v>9416</v>
+      </c>
+      <c r="B3008" s="35"/>
+      <c r="C3008" t="s" s="12">
+        <v>7800</v>
+      </c>
+      <c r="D3008" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3008" t="s" s="12">
+        <v>52</v>
+      </c>
+      <c r="F3008" t="s" s="12">
+        <v>7799</v>
+      </c>
+    </row>
+    <row r="3009" ht="72.35" customHeight="1">
+      <c r="A3009" t="s" s="10">
+        <v>9417</v>
+      </c>
+      <c r="B3009" s="35"/>
+      <c r="C3009" t="s" s="12">
+        <v>7803</v>
+      </c>
+      <c r="D3009" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3009" t="s" s="12">
+        <v>7804</v>
+      </c>
+      <c r="F3009" t="s" s="12">
+        <v>7802</v>
+      </c>
+    </row>
+    <row r="3010" ht="55.6" customHeight="1">
+      <c r="A3010" t="s" s="10">
+        <v>9418</v>
+      </c>
+      <c r="B3010" s="11"/>
+      <c r="C3010" t="s" s="12">
+        <v>7807</v>
+      </c>
+      <c r="D3010" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3010" t="s" s="12">
+        <v>3417</v>
+      </c>
+      <c r="F3010" t="s" s="12">
+        <v>7806</v>
+      </c>
+    </row>
+    <row r="3011" ht="55.6" customHeight="1">
+      <c r="A3011" t="s" s="10">
+        <v>9419</v>
+      </c>
+      <c r="B3011" s="11"/>
+      <c r="C3011" t="s" s="12">
+        <v>7810</v>
+      </c>
+      <c r="D3011" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3011" t="s" s="12">
+        <v>3421</v>
+      </c>
+      <c r="F3011" t="s" s="12">
+        <v>7809</v>
+      </c>
+    </row>
+    <row r="3012" ht="55.6" customHeight="1">
+      <c r="A3012" t="s" s="10">
+        <v>9420</v>
+      </c>
+      <c r="B3012" s="35"/>
+      <c r="C3012" t="s" s="12">
+        <v>7813</v>
+      </c>
+      <c r="D3012" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3012" t="s" s="12">
+        <v>7814</v>
+      </c>
+      <c r="F3012" t="s" s="12">
+        <v>7812</v>
+      </c>
+    </row>
+    <row r="3013" ht="72.35" customHeight="1">
+      <c r="A3013" t="s" s="10">
+        <v>9421</v>
+      </c>
+      <c r="B3013" s="35"/>
+      <c r="C3013" t="s" s="12">
+        <v>7817</v>
+      </c>
+      <c r="D3013" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3013" t="s" s="12">
+        <v>7818</v>
+      </c>
+      <c r="F3013" t="s" s="12">
+        <v>7816</v>
+      </c>
+    </row>
+    <row r="3014" ht="55.6" customHeight="1">
+      <c r="A3014" t="s" s="10">
+        <v>9422</v>
+      </c>
+      <c r="B3014" s="11"/>
+      <c r="C3014" t="s" s="12">
+        <v>7821</v>
+      </c>
+      <c r="D3014" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3014" t="s" s="12">
+        <v>3563</v>
+      </c>
+      <c r="F3014" t="s" s="12">
+        <v>7820</v>
+      </c>
+    </row>
+    <row r="3015" ht="55.6" customHeight="1">
+      <c r="A3015" t="s" s="10">
+        <v>9423</v>
+      </c>
+      <c r="B3015" s="11"/>
+      <c r="C3015" t="s" s="12">
+        <v>7824</v>
+      </c>
+      <c r="D3015" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3015" t="s" s="12">
+        <v>3567</v>
+      </c>
+      <c r="F3015" t="s" s="12">
+        <v>7823</v>
+      </c>
+    </row>
+    <row r="3016" ht="55.6" customHeight="1">
+      <c r="A3016" t="s" s="10">
+        <v>9424</v>
+      </c>
+      <c r="B3016" s="35"/>
+      <c r="C3016" t="s" s="12">
+        <v>7827</v>
+      </c>
+      <c r="D3016" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3016" t="s" s="12">
+        <v>3586</v>
+      </c>
+      <c r="F3016" t="s" s="12">
+        <v>7826</v>
+      </c>
+    </row>
+    <row r="3017" ht="55.6" customHeight="1">
+      <c r="A3017" t="s" s="10">
+        <v>9425</v>
+      </c>
+      <c r="B3017" s="35"/>
+      <c r="C3017" t="s" s="12">
+        <v>7830</v>
+      </c>
+      <c r="D3017" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3017" t="s" s="12">
+        <v>3582</v>
+      </c>
+      <c r="F3017" t="s" s="12">
+        <v>7829</v>
+      </c>
+    </row>
+    <row r="3018" ht="55.6" customHeight="1">
+      <c r="A3018" t="s" s="10">
+        <v>9426</v>
+      </c>
+      <c r="B3018" s="11"/>
+      <c r="C3018" t="s" s="12">
+        <v>7833</v>
+      </c>
+      <c r="D3018" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3018" t="s" s="12">
+        <v>3370</v>
+      </c>
+      <c r="F3018" t="s" s="12">
+        <v>7832</v>
+      </c>
+    </row>
+    <row r="3019" ht="55.6" customHeight="1">
+      <c r="A3019" t="s" s="10">
+        <v>9427</v>
+      </c>
+      <c r="B3019" s="11"/>
+      <c r="C3019" t="s" s="12">
+        <v>7836</v>
+      </c>
+      <c r="D3019" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3019" t="s" s="12">
+        <v>3374</v>
+      </c>
+      <c r="F3019" t="s" s="12">
+        <v>7835</v>
+      </c>
+    </row>
+    <row r="3020" ht="55.6" customHeight="1">
+      <c r="A3020" t="s" s="10">
+        <v>9428</v>
+      </c>
+      <c r="B3020" s="35"/>
+      <c r="C3020" t="s" s="12">
+        <v>7839</v>
+      </c>
+      <c r="D3020" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3020" t="s" s="12">
+        <v>7840</v>
+      </c>
+      <c r="F3020" t="s" s="12">
+        <v>7838</v>
+      </c>
+    </row>
+    <row r="3021" ht="72.35" customHeight="1">
+      <c r="A3021" t="s" s="10">
+        <v>9429</v>
+      </c>
+      <c r="B3021" s="35"/>
+      <c r="C3021" t="s" s="12">
+        <v>7842</v>
+      </c>
+      <c r="D3021" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3021" t="s" s="12">
+        <v>6534</v>
+      </c>
+      <c r="F3021" t="s" s="12">
+        <v>7491</v>
+      </c>
+    </row>
+    <row r="3022" ht="55.6" customHeight="1">
+      <c r="A3022" t="s" s="10">
+        <v>9430</v>
+      </c>
+      <c r="B3022" s="11"/>
+      <c r="C3022" t="s" s="12">
+        <v>7845</v>
+      </c>
+      <c r="D3022" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3022" t="s" s="12">
+        <v>3539</v>
+      </c>
+      <c r="F3022" t="s" s="12">
+        <v>7844</v>
+      </c>
+    </row>
+    <row r="3023" ht="55.6" customHeight="1">
+      <c r="A3023" t="s" s="10">
+        <v>9431</v>
+      </c>
+      <c r="B3023" s="11"/>
+      <c r="C3023" t="s" s="12">
+        <v>7848</v>
+      </c>
+      <c r="D3023" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3023" t="s" s="12">
+        <v>3543</v>
+      </c>
+      <c r="F3023" t="s" s="12">
+        <v>7847</v>
+      </c>
+    </row>
+    <row r="3024" ht="55.6" customHeight="1">
+      <c r="A3024" t="s" s="10">
+        <v>9432</v>
+      </c>
+      <c r="B3024" s="35"/>
+      <c r="C3024" t="s" s="12">
+        <v>7851</v>
+      </c>
+      <c r="D3024" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3024" t="s" s="12">
+        <v>7852</v>
+      </c>
+      <c r="F3024" t="s" s="12">
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="3025" ht="72.35" customHeight="1">
+      <c r="A3025" t="s" s="10">
+        <v>9433</v>
+      </c>
+      <c r="B3025" s="35"/>
+      <c r="C3025" t="s" s="12">
+        <v>7855</v>
+      </c>
+      <c r="D3025" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3025" t="s" s="12">
+        <v>7856</v>
+      </c>
+      <c r="F3025" t="s" s="12">
+        <v>7854</v>
+      </c>
+    </row>
+    <row r="3026" ht="55.6" customHeight="1">
+      <c r="A3026" t="s" s="10">
+        <v>9434</v>
+      </c>
+      <c r="B3026" s="11"/>
+      <c r="C3026" t="s" s="12">
+        <v>7859</v>
+      </c>
+      <c r="D3026" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3026" t="s" s="12">
+        <v>3547</v>
+      </c>
+      <c r="F3026" t="s" s="12">
+        <v>7858</v>
+      </c>
+    </row>
+    <row r="3027" ht="55.6" customHeight="1">
+      <c r="A3027" t="s" s="10">
+        <v>9435</v>
+      </c>
+      <c r="B3027" s="11"/>
+      <c r="C3027" t="s" s="12">
+        <v>7862</v>
+      </c>
+      <c r="D3027" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3027" t="s" s="12">
+        <v>3551</v>
+      </c>
+      <c r="F3027" t="s" s="12">
+        <v>7861</v>
+      </c>
+    </row>
+    <row r="3028" ht="55.6" customHeight="1">
+      <c r="A3028" t="s" s="10">
+        <v>9436</v>
+      </c>
+      <c r="B3028" s="35"/>
+      <c r="C3028" t="s" s="12">
+        <v>7865</v>
+      </c>
+      <c r="D3028" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3028" t="s" s="12">
+        <v>7866</v>
+      </c>
+      <c r="F3028" t="s" s="12">
+        <v>7864</v>
+      </c>
+    </row>
+    <row r="3029" ht="55.6" customHeight="1">
+      <c r="A3029" t="s" s="10">
+        <v>9437</v>
+      </c>
+      <c r="B3029" s="35"/>
+      <c r="C3029" t="s" s="12">
+        <v>7869</v>
+      </c>
+      <c r="D3029" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3029" t="s" s="12">
+        <v>62</v>
+      </c>
+      <c r="F3029" t="s" s="12">
+        <v>7868</v>
+      </c>
+    </row>
+    <row r="3030" ht="55.6" customHeight="1">
+      <c r="A3030" t="s" s="10">
+        <v>9438</v>
+      </c>
+      <c r="B3030" s="11"/>
+      <c r="C3030" t="s" s="12">
+        <v>7872</v>
+      </c>
+      <c r="D3030" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3030" t="s" s="12">
+        <v>3409</v>
+      </c>
+      <c r="F3030" t="s" s="12">
+        <v>7871</v>
+      </c>
+    </row>
+    <row r="3031" ht="55.6" customHeight="1">
+      <c r="A3031" t="s" s="10">
+        <v>9439</v>
+      </c>
+      <c r="B3031" s="11"/>
+      <c r="C3031" t="s" s="12">
+        <v>7875</v>
+      </c>
+      <c r="D3031" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3031" t="s" s="12">
+        <v>3413</v>
+      </c>
+      <c r="F3031" t="s" s="12">
+        <v>7874</v>
+      </c>
+    </row>
+    <row r="3032" ht="72.35" customHeight="1">
+      <c r="A3032" t="s" s="10">
+        <v>9440</v>
+      </c>
+      <c r="B3032" s="35"/>
+      <c r="C3032" t="s" s="12">
+        <v>7878</v>
+      </c>
+      <c r="D3032" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3032" t="s" s="12">
+        <v>7879</v>
+      </c>
+      <c r="F3032" t="s" s="12">
+        <v>7877</v>
+      </c>
+    </row>
+    <row r="3033" ht="55.6" customHeight="1">
+      <c r="A3033" t="s" s="10">
+        <v>9441</v>
+      </c>
+      <c r="B3033" s="35"/>
+      <c r="C3033" t="s" s="12">
+        <v>7882</v>
+      </c>
+      <c r="D3033" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3033" t="s" s="12">
+        <v>3153</v>
+      </c>
+      <c r="F3033" t="s" s="12">
+        <v>7881</v>
+      </c>
+    </row>
+    <row r="3034" ht="55.6" customHeight="1">
+      <c r="A3034" t="s" s="10">
+        <v>9442</v>
+      </c>
+      <c r="B3034" s="35"/>
+      <c r="C3034" t="s" s="12">
+        <v>7885</v>
+      </c>
+      <c r="D3034" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3034" t="s" s="12">
+        <v>3328</v>
+      </c>
+      <c r="F3034" t="s" s="12">
+        <v>7884</v>
+      </c>
+    </row>
+    <row r="3035" ht="72.35" customHeight="1">
+      <c r="A3035" t="s" s="10">
+        <v>9443</v>
+      </c>
+      <c r="B3035" s="35"/>
+      <c r="C3035" t="s" s="12">
+        <v>7888</v>
+      </c>
+      <c r="D3035" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3035" t="s" s="12">
+        <v>3332</v>
+      </c>
+      <c r="F3035" t="s" s="12">
+        <v>7887</v>
+      </c>
+    </row>
+    <row r="3036" ht="72.35" customHeight="1">
+      <c r="A3036" t="s" s="10">
+        <v>9444</v>
+      </c>
+      <c r="B3036" s="35"/>
+      <c r="C3036" t="s" s="12">
+        <v>7891</v>
+      </c>
+      <c r="D3036" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3036" t="s" s="12">
+        <v>7892</v>
+      </c>
+      <c r="F3036" t="s" s="12">
+        <v>7890</v>
+      </c>
+    </row>
+    <row r="3037" ht="72.35" customHeight="1">
+      <c r="A3037" t="s" s="10">
+        <v>9445</v>
+      </c>
+      <c r="B3037" s="35"/>
+      <c r="C3037" t="s" s="12">
+        <v>7895</v>
+      </c>
+      <c r="D3037" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3037" t="s" s="12">
+        <v>7896</v>
+      </c>
+      <c r="F3037" t="s" s="12">
+        <v>7894</v>
+      </c>
+    </row>
+    <row r="3038" ht="55.6" customHeight="1">
+      <c r="A3038" t="s" s="10">
+        <v>9446</v>
+      </c>
+      <c r="B3038" s="35"/>
+      <c r="C3038" t="s" s="12">
+        <v>7899</v>
+      </c>
+      <c r="D3038" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3038" t="s" s="12">
+        <v>3523</v>
+      </c>
+      <c r="F3038" t="s" s="12">
+        <v>7898</v>
+      </c>
+    </row>
+    <row r="3039" ht="72.35" customHeight="1">
+      <c r="A3039" t="s" s="10">
+        <v>9447</v>
+      </c>
+      <c r="B3039" s="35"/>
+      <c r="C3039" t="s" s="12">
+        <v>7902</v>
+      </c>
+      <c r="D3039" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3039" t="s" s="12">
+        <v>3527</v>
+      </c>
+      <c r="F3039" t="s" s="12">
+        <v>7901</v>
+      </c>
+    </row>
+    <row r="3040" ht="72.35" customHeight="1">
+      <c r="A3040" t="s" s="10">
+        <v>9448</v>
+      </c>
+      <c r="B3040" s="35"/>
+      <c r="C3040" t="s" s="12">
+        <v>7905</v>
+      </c>
+      <c r="D3040" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3040" t="s" s="12">
+        <v>7906</v>
+      </c>
+      <c r="F3040" t="s" s="12">
+        <v>7904</v>
+      </c>
+    </row>
+    <row r="3041" ht="72.35" customHeight="1">
+      <c r="A3041" t="s" s="10">
+        <v>9449</v>
+      </c>
+      <c r="B3041" s="35"/>
+      <c r="C3041" t="s" s="12">
+        <v>7909</v>
+      </c>
+      <c r="D3041" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3041" t="s" s="12">
+        <v>7910</v>
+      </c>
+      <c r="F3041" t="s" s="12">
+        <v>7908</v>
+      </c>
+    </row>
+    <row r="3042" ht="55.6" customHeight="1">
+      <c r="A3042" t="s" s="10">
+        <v>9450</v>
+      </c>
+      <c r="B3042" s="35"/>
+      <c r="C3042" t="s" s="12">
+        <v>7913</v>
+      </c>
+      <c r="D3042" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3042" t="s" s="12">
+        <v>3449</v>
+      </c>
+      <c r="F3042" t="s" s="12">
+        <v>7912</v>
+      </c>
+    </row>
+    <row r="3043" ht="72.35" customHeight="1">
+      <c r="A3043" t="s" s="10">
+        <v>9451</v>
+      </c>
+      <c r="B3043" s="35"/>
+      <c r="C3043" t="s" s="12">
+        <v>7916</v>
+      </c>
+      <c r="D3043" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3043" t="s" s="12">
+        <v>3453</v>
+      </c>
+      <c r="F3043" t="s" s="12">
+        <v>7915</v>
+      </c>
+    </row>
+    <row r="3044" ht="55.6" customHeight="1">
+      <c r="A3044" t="s" s="10">
+        <v>9452</v>
+      </c>
+      <c r="B3044" s="35"/>
+      <c r="C3044" t="s" s="12">
+        <v>7919</v>
+      </c>
+      <c r="D3044" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3044" t="s" s="12">
+        <v>7920</v>
+      </c>
+      <c r="F3044" t="s" s="12">
+        <v>7918</v>
+      </c>
+    </row>
+    <row r="3045" ht="72.35" customHeight="1">
+      <c r="A3045" t="s" s="10">
+        <v>9453</v>
+      </c>
+      <c r="B3045" s="35"/>
+      <c r="C3045" t="s" s="12">
+        <v>7922</v>
+      </c>
+      <c r="D3045" t="s" s="12">
+        <v>9262</v>
+      </c>
+      <c r="E3045" t="s" s="12">
+        <v>3177</v>
+      </c>
+      <c r="F3045" t="s" s="12">
+        <v>7488</v>
+      </c>
+    </row>
+    <row r="3046" ht="23.15" customHeight="1">
+      <c r="A3046" t="s" s="10">
+        <v>9454</v>
+      </c>
+      <c r="B3046" t="s" s="11">
+        <v>9455</v>
+      </c>
+      <c r="C3046" t="s" s="12">
+        <v>9456</v>
+      </c>
+      <c r="D3046" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E3046" t="s" s="12">
+        <v>9457</v>
+      </c>
+      <c r="F3046" s="13"/>
+    </row>
+    <row r="3047" ht="38.85" customHeight="1">
+      <c r="A3047" t="s" s="10">
+        <v>9458</v>
+      </c>
+      <c r="B3047" t="s" s="11">
+        <v>9459</v>
+      </c>
+      <c r="C3047" t="s" s="12">
+        <v>9460</v>
+      </c>
+      <c r="D3047" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E3047" t="s" s="12">
+        <v>9461</v>
+      </c>
+      <c r="F3047" s="13"/>
+    </row>
+    <row r="3048" ht="23.15" customHeight="1">
+      <c r="A3048" t="s" s="10">
+        <v>9462</v>
+      </c>
+      <c r="B3048" t="s" s="11">
+        <v>9463</v>
+      </c>
+      <c r="C3048" t="s" s="12">
+        <v>9464</v>
+      </c>
+      <c r="D3048" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E3048" t="s" s="12">
+        <v>9465</v>
+      </c>
+      <c r="F3048" s="13"/>
+    </row>
+    <row r="3049" ht="23.15" customHeight="1">
+      <c r="A3049" t="s" s="10">
+        <v>9466</v>
+      </c>
+      <c r="B3049" t="s" s="11">
+        <v>9467</v>
+      </c>
+      <c r="C3049" t="s" s="12">
+        <v>9468</v>
+      </c>
+      <c r="D3049" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E3049" t="s" s="12">
+        <v>9469</v>
+      </c>
+      <c r="F3049" s="13"/>
+    </row>
+    <row r="3050" ht="23.15" customHeight="1">
+      <c r="A3050" t="s" s="10">
+        <v>9470</v>
+      </c>
+      <c r="B3050" t="s" s="11">
+        <v>9471</v>
+      </c>
+      <c r="C3050" t="s" s="12">
+        <v>9472</v>
+      </c>
+      <c r="D3050" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E3050" t="s" s="12">
+        <v>9473</v>
+      </c>
+      <c r="F3050" s="13"/>
+    </row>
+    <row r="3051" ht="55.6" customHeight="1">
+      <c r="A3051" t="s" s="10">
+        <v>9474</v>
+      </c>
+      <c r="B3051" t="s" s="11">
+        <v>9475</v>
+      </c>
+      <c r="C3051" t="s" s="12">
+        <v>9476</v>
+      </c>
+      <c r="D3051" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E3051" t="s" s="12">
+        <v>9477</v>
+      </c>
+      <c r="F3051" s="13"/>
+    </row>
+    <row r="3052" ht="38.85" customHeight="1">
+      <c r="A3052" t="s" s="10">
+        <v>9478</v>
+      </c>
+      <c r="B3052" t="s" s="11">
+        <v>9479</v>
+      </c>
+      <c r="C3052" t="s" s="12">
+        <v>9480</v>
+      </c>
+      <c r="D3052" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E3052" t="s" s="12">
+        <v>9481</v>
+      </c>
+      <c r="F3052" s="13"/>
+    </row>
+    <row r="3053" ht="55.6" customHeight="1">
+      <c r="A3053" t="s" s="10">
+        <v>9482</v>
+      </c>
+      <c r="B3053" t="s" s="11">
+        <v>9483</v>
+      </c>
+      <c r="C3053" t="s" s="12">
+        <v>9484</v>
+      </c>
+      <c r="D3053" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E3053" t="s" s="12">
+        <v>9485</v>
+      </c>
+      <c r="F3053" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
